--- a/Code/Results/Cases/Case_5_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_25/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9954714012899422</v>
+        <v>1.002793348384528</v>
       </c>
       <c r="D2">
-        <v>1.014918785927663</v>
+        <v>1.022373664952938</v>
       </c>
       <c r="E2">
-        <v>1.003988660087903</v>
+        <v>1.008496774467974</v>
       </c>
       <c r="F2">
-        <v>1.013582465312367</v>
+        <v>1.022625447356851</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044684210205116</v>
+        <v>1.043230885344171</v>
       </c>
       <c r="J2">
-        <v>1.017788410832044</v>
+        <v>1.024890830674611</v>
       </c>
       <c r="K2">
-        <v>1.026174118536895</v>
+        <v>1.03352985638185</v>
       </c>
       <c r="L2">
-        <v>1.015392704832496</v>
+        <v>1.019838991425428</v>
       </c>
       <c r="M2">
-        <v>1.024855763166039</v>
+        <v>1.033778322016631</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003349113408543</v>
+        <v>1.009243640554388</v>
       </c>
       <c r="D3">
-        <v>1.020831064704573</v>
+        <v>1.027427349368012</v>
       </c>
       <c r="E3">
-        <v>1.010645051581953</v>
+        <v>1.013816048251706</v>
       </c>
       <c r="F3">
-        <v>1.020725245499032</v>
+        <v>1.028509825396974</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047380654733034</v>
+        <v>1.045104303509732</v>
       </c>
       <c r="J3">
-        <v>1.023748892737435</v>
+        <v>1.029485447681238</v>
       </c>
       <c r="K3">
-        <v>1.031204169453021</v>
+        <v>1.037720919096749</v>
       </c>
       <c r="L3">
-        <v>1.021143515013393</v>
+        <v>1.024275150259024</v>
       </c>
       <c r="M3">
-        <v>1.031099636576282</v>
+        <v>1.038790463952865</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008285439598008</v>
+        <v>1.013307616640296</v>
       </c>
       <c r="D4">
-        <v>1.024537704130092</v>
+        <v>1.030613997222195</v>
       </c>
       <c r="E4">
-        <v>1.014821831963505</v>
+        <v>1.017173553399202</v>
       </c>
       <c r="F4">
-        <v>1.025207838469368</v>
+        <v>1.032223369440016</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049054908567264</v>
+        <v>1.046273198065047</v>
       </c>
       <c r="J4">
-        <v>1.027479551623048</v>
+        <v>1.032376931086665</v>
       </c>
       <c r="K4">
-        <v>1.034348732960923</v>
+        <v>1.040356461868635</v>
       </c>
       <c r="L4">
-        <v>1.024744602185264</v>
+        <v>1.027069034745546</v>
       </c>
       <c r="M4">
-        <v>1.035011256423384</v>
+        <v>1.04194784053448</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010324384344163</v>
+        <v>1.014991111432031</v>
       </c>
       <c r="D5">
-        <v>1.026069050973304</v>
+        <v>1.031934594008886</v>
       </c>
       <c r="E5">
-        <v>1.016548323316586</v>
+        <v>1.018565786461615</v>
       </c>
       <c r="F5">
-        <v>1.027060887596265</v>
+        <v>1.033763090363863</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049742687611296</v>
+        <v>1.046754608943948</v>
       </c>
       <c r="J5">
-        <v>1.029019389419896</v>
+        <v>1.033573865126878</v>
       </c>
       <c r="K5">
-        <v>1.035645730117054</v>
+        <v>1.041446955868594</v>
       </c>
       <c r="L5">
-        <v>1.026231346358407</v>
+        <v>1.02822607056108</v>
       </c>
       <c r="M5">
-        <v>1.036626627565675</v>
+        <v>1.043255585334278</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010664666671883</v>
+        <v>1.015272347200343</v>
       </c>
       <c r="D6">
-        <v>1.026324634948705</v>
+        <v>1.032155234813948</v>
       </c>
       <c r="E6">
-        <v>1.016836532029789</v>
+        <v>1.018798445336745</v>
       </c>
       <c r="F6">
-        <v>1.027370231808543</v>
+        <v>1.034020387749512</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049857248101869</v>
+        <v>1.046834864583207</v>
       </c>
       <c r="J6">
-        <v>1.029276307827325</v>
+        <v>1.033773766549891</v>
       </c>
       <c r="K6">
-        <v>1.035862075622515</v>
+        <v>1.041629051078676</v>
       </c>
       <c r="L6">
-        <v>1.026479428699058</v>
+        <v>1.028419337946259</v>
       </c>
       <c r="M6">
-        <v>1.036896197506657</v>
+        <v>1.043474036909545</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008312823801534</v>
+        <v>1.01333020818495</v>
       </c>
       <c r="D7">
-        <v>1.024558269888236</v>
+        <v>1.030631716885711</v>
       </c>
       <c r="E7">
-        <v>1.014845014817194</v>
+        <v>1.017192230966145</v>
       </c>
       <c r="F7">
-        <v>1.02523272011482</v>
+        <v>1.032244026212719</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049064160862657</v>
+        <v>1.046279669478833</v>
       </c>
       <c r="J7">
-        <v>1.027500237014561</v>
+        <v>1.032392996729228</v>
       </c>
       <c r="K7">
-        <v>1.034366159873429</v>
+        <v>1.040371100813022</v>
       </c>
       <c r="L7">
-        <v>1.024764572823915</v>
+        <v>1.027084562878598</v>
       </c>
       <c r="M7">
-        <v>1.035032953182853</v>
+        <v>1.04196539058325</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9981685010842862</v>
+        <v>1.004996791498872</v>
       </c>
       <c r="D8">
-        <v>1.016942494813054</v>
+        <v>1.024099418051602</v>
       </c>
       <c r="E8">
-        <v>1.006266330786495</v>
+        <v>1.010312520207963</v>
       </c>
       <c r="F8">
-        <v>1.016026439708937</v>
+        <v>1.024634235175379</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045610598245973</v>
+        <v>1.043873226410017</v>
       </c>
       <c r="J8">
-        <v>1.019829964954247</v>
+        <v>1.026461033745458</v>
       </c>
       <c r="K8">
-        <v>1.027897757413465</v>
+        <v>1.034962549943732</v>
       </c>
       <c r="L8">
-        <v>1.0173620844389</v>
+        <v>1.021354590541234</v>
       </c>
       <c r="M8">
-        <v>1.02699361195535</v>
+        <v>1.03549054696015</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9789447382056224</v>
+        <v>0.9894084081916804</v>
       </c>
       <c r="D9">
-        <v>1.0025326792222</v>
+        <v>1.011905670369147</v>
       </c>
       <c r="E9">
-        <v>0.9900620323165095</v>
+        <v>0.9974966735918275</v>
       </c>
       <c r="F9">
-        <v>0.9986415470800553</v>
+        <v>1.010452702687811</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038944341476813</v>
+        <v>1.039282226288561</v>
       </c>
       <c r="J9">
-        <v>1.005263566687205</v>
+        <v>1.015340807900245</v>
       </c>
       <c r="K9">
-        <v>1.015584798686034</v>
+        <v>1.024808495077937</v>
       </c>
       <c r="L9">
-        <v>1.003318430554429</v>
+        <v>1.010630496510494</v>
       </c>
       <c r="M9">
-        <v>1.011756702751967</v>
+        <v>1.023378438290758</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9650397067602374</v>
+        <v>0.9783112318502011</v>
       </c>
       <c r="D10">
-        <v>0.9921358811962422</v>
+        <v>1.003249454923798</v>
       </c>
       <c r="E10">
-        <v>0.9783859728981813</v>
+        <v>0.9884155301411476</v>
       </c>
       <c r="F10">
-        <v>0.9861179924025714</v>
+        <v>1.000399376450963</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034045343975714</v>
+        <v>1.035957110018525</v>
       </c>
       <c r="J10">
-        <v>0.9947124968836866</v>
+        <v>1.007412596116991</v>
       </c>
       <c r="K10">
-        <v>1.006648591410827</v>
+        <v>1.017560286269481</v>
       </c>
       <c r="L10">
-        <v>0.9931567579262089</v>
+        <v>1.002997144011029</v>
       </c>
       <c r="M10">
-        <v>1.000742497391408</v>
+        <v>1.01476142377472</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9587114187584745</v>
+        <v>0.9733140070579671</v>
       </c>
       <c r="D11">
-        <v>0.9874133083794019</v>
+        <v>0.9993589732485888</v>
       </c>
       <c r="E11">
-        <v>0.9730851691153459</v>
+        <v>0.9843377270216178</v>
       </c>
       <c r="F11">
-        <v>0.9804331602754337</v>
+        <v>0.9958838078090926</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031798978856164</v>
+        <v>1.034447256323219</v>
       </c>
       <c r="J11">
-        <v>0.9899087703310496</v>
+        <v>1.003840693890054</v>
       </c>
       <c r="K11">
-        <v>1.002576559986439</v>
+        <v>1.014292988528503</v>
       </c>
       <c r="L11">
-        <v>0.9885331580221028</v>
+        <v>0.999561181222989</v>
       </c>
       <c r="M11">
-        <v>0.9957337591542904</v>
+        <v>1.010883769215359</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9563097197580184</v>
+        <v>0.9714265645366905</v>
       </c>
       <c r="D12">
-        <v>0.9856226534479995</v>
+        <v>0.9978908438836358</v>
       </c>
       <c r="E12">
-        <v>0.9710756162011531</v>
+        <v>0.9827994310484649</v>
       </c>
       <c r="F12">
-        <v>0.9782781272258296</v>
+        <v>0.9941801739964268</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030944069489788</v>
+        <v>1.033875201064957</v>
       </c>
       <c r="J12">
-        <v>0.9880855559002234</v>
+        <v>1.002491440233933</v>
       </c>
       <c r="K12">
-        <v>1.001030583500117</v>
+        <v>1.013058563859855</v>
       </c>
       <c r="L12">
-        <v>0.9867787645802022</v>
+        <v>0.9982637564936541</v>
       </c>
       <c r="M12">
-        <v>0.9938336616045247</v>
+        <v>1.00941972855959</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9568272914228463</v>
+        <v>0.9718328828877647</v>
       </c>
       <c r="D13">
-        <v>0.986008464565362</v>
+        <v>0.9982068333541909</v>
       </c>
       <c r="E13">
-        <v>0.971508576255555</v>
+        <v>0.9831304995788743</v>
       </c>
       <c r="F13">
-        <v>0.9787424263547767</v>
+        <v>0.9945468352763064</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031128408904997</v>
+        <v>1.033998429091146</v>
       </c>
       <c r="J13">
-        <v>0.9884784650792552</v>
+        <v>1.002781905344884</v>
       </c>
       <c r="K13">
-        <v>1.001363767146303</v>
+        <v>1.013324318743306</v>
       </c>
       <c r="L13">
-        <v>0.9871568215430706</v>
+        <v>0.9985430420935384</v>
       </c>
       <c r="M13">
-        <v>0.9942430966701197</v>
+        <v>1.009734872494092</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9585139668989696</v>
+        <v>0.9731586427668771</v>
       </c>
       <c r="D14">
-        <v>0.9872660574461206</v>
+        <v>0.9992380972503746</v>
       </c>
       <c r="E14">
-        <v>0.9729199109459198</v>
+        <v>0.9842110635485415</v>
       </c>
       <c r="F14">
-        <v>0.9802559362196618</v>
+        <v>0.9957435344765504</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03172874100479</v>
+        <v>1.034400203448701</v>
       </c>
       <c r="J14">
-        <v>0.9897588789462215</v>
+        <v>1.003729632930467</v>
       </c>
       <c r="K14">
-        <v>1.002449470260282</v>
+        <v>1.01419138400359</v>
       </c>
       <c r="L14">
-        <v>0.9883889151910111</v>
+        <v>0.9994543766464642</v>
       </c>
       <c r="M14">
-        <v>0.995577527905843</v>
+        <v>1.010763245307827</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9595462535723073</v>
+        <v>0.9739712700353554</v>
       </c>
       <c r="D15">
-        <v>0.9880359601408336</v>
+        <v>0.9998703885910706</v>
       </c>
       <c r="E15">
-        <v>0.9737839783217904</v>
+        <v>0.9848736497058059</v>
       </c>
       <c r="F15">
-        <v>0.9811825726241273</v>
+        <v>0.9964773067403949</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032095852046622</v>
+        <v>1.03464623970205</v>
       </c>
       <c r="J15">
-        <v>0.9905425138537753</v>
+        <v>1.004310527662717</v>
       </c>
       <c r="K15">
-        <v>1.003113878929811</v>
+        <v>1.014722808405887</v>
       </c>
       <c r="L15">
-        <v>0.9891430380244146</v>
+        <v>1.000013028306833</v>
       </c>
       <c r="M15">
-        <v>0.9963943456919576</v>
+        <v>1.011393664105651</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9654528159335625</v>
+        <v>0.9786386360417914</v>
       </c>
       <c r="D16">
-        <v>0.9924443800447904</v>
+        <v>1.003504518361</v>
       </c>
       <c r="E16">
-        <v>0.9787322967926031</v>
+        <v>0.9886829481874057</v>
       </c>
       <c r="F16">
-        <v>0.9864894212554086</v>
+        <v>1.000695476295818</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034191651606022</v>
+        <v>1.036055779699924</v>
       </c>
       <c r="J16">
-        <v>0.9950260580913787</v>
+        <v>1.007646590244666</v>
       </c>
       <c r="K16">
-        <v>1.006914323536342</v>
+        <v>1.017774292003363</v>
       </c>
       <c r="L16">
-        <v>0.9934586223894065</v>
+        <v>1.003222298123466</v>
       </c>
       <c r="M16">
-        <v>1.001069565280472</v>
+        <v>1.015015544188256</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9690723161050588</v>
+        <v>0.9815133186031249</v>
       </c>
       <c r="D17">
-        <v>0.9951483782119963</v>
+        <v>1.005744904484392</v>
       </c>
       <c r="E17">
-        <v>0.9817681447797738</v>
+        <v>0.9910322641207814</v>
       </c>
       <c r="F17">
-        <v>0.989745418687845</v>
+        <v>1.003296627643712</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035471668620761</v>
+        <v>1.03692071741723</v>
       </c>
       <c r="J17">
-        <v>0.9977731671991544</v>
+        <v>1.009700929559119</v>
       </c>
       <c r="K17">
-        <v>1.009242012068106</v>
+        <v>1.01965294897214</v>
       </c>
       <c r="L17">
-        <v>0.9961035788123835</v>
+        <v>1.00519937873995</v>
       </c>
       <c r="M17">
-        <v>1.003935669029249</v>
+        <v>1.017247100884813</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9711542257673856</v>
+        <v>0.9831717149444636</v>
       </c>
       <c r="D18">
-        <v>0.996704529315466</v>
+        <v>1.007038076225511</v>
       </c>
       <c r="E18">
-        <v>0.9835155483639177</v>
+        <v>0.9923886584006202</v>
       </c>
       <c r="F18">
-        <v>0.9916196062545305</v>
+        <v>1.004798307079335</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036206342107034</v>
+        <v>1.037418512828653</v>
       </c>
       <c r="J18">
-        <v>0.9993530989213136</v>
+        <v>1.010885903820871</v>
       </c>
       <c r="K18">
-        <v>1.010580390371513</v>
+        <v>1.020736419201902</v>
       </c>
       <c r="L18">
-        <v>0.997625023816647</v>
+        <v>1.006340079753224</v>
       </c>
       <c r="M18">
-        <v>1.005584581343446</v>
+        <v>1.018534726336156</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9718592740353073</v>
+        <v>0.9837341399813962</v>
       </c>
       <c r="D19">
-        <v>0.9972316603584206</v>
+        <v>1.007476753715857</v>
       </c>
       <c r="E19">
-        <v>0.9841075128070856</v>
+        <v>0.9928488423178708</v>
       </c>
       <c r="F19">
-        <v>0.9922545326994432</v>
+        <v>1.005307762990197</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036454870042218</v>
+        <v>1.037587130534878</v>
       </c>
       <c r="J19">
-        <v>0.9998881141544712</v>
+        <v>1.011287742002637</v>
       </c>
       <c r="K19">
-        <v>1.011033549626255</v>
+        <v>1.021103806866695</v>
       </c>
       <c r="L19">
-        <v>0.9981402775643199</v>
+        <v>1.006726953307578</v>
       </c>
       <c r="M19">
-        <v>1.006143046512312</v>
+        <v>1.018971446972554</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9686870401800733</v>
+        <v>0.981206807618997</v>
       </c>
       <c r="D20">
-        <v>0.9948604641248687</v>
+        <v>1.005505951150929</v>
       </c>
       <c r="E20">
-        <v>0.9814448684190494</v>
+        <v>0.9907816567679263</v>
       </c>
       <c r="F20">
-        <v>0.9893986923482248</v>
+        <v>1.003019168298306</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035335581436049</v>
+        <v>1.036828616481984</v>
       </c>
       <c r="J20">
-        <v>0.9974807706676718</v>
+        <v>1.009481903870611</v>
       </c>
       <c r="K20">
-        <v>1.008994292131913</v>
+        <v>1.019452671067345</v>
       </c>
       <c r="L20">
-        <v>0.9958220275683279</v>
+        <v>1.004988559777951</v>
       </c>
       <c r="M20">
-        <v>1.003630550084379</v>
+        <v>1.017009136209811</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9580187365956317</v>
+        <v>0.9727691227636189</v>
       </c>
       <c r="D21">
-        <v>0.9868967638840693</v>
+        <v>0.9989350656966002</v>
       </c>
       <c r="E21">
-        <v>0.9725054620088768</v>
+        <v>0.9838935313125582</v>
       </c>
       <c r="F21">
-        <v>0.9798114798832179</v>
+        <v>0.9953918805140352</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031552539392807</v>
+        <v>1.034282206901141</v>
       </c>
       <c r="J21">
-        <v>0.9893829341482266</v>
+        <v>1.00345118548649</v>
       </c>
       <c r="K21">
-        <v>1.002130707285138</v>
+        <v>1.013936641711096</v>
       </c>
       <c r="L21">
-        <v>0.9880271450366689</v>
+        <v>0.9991866083865322</v>
       </c>
       <c r="M21">
-        <v>0.9951856970825996</v>
+        <v>1.010461084220746</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9510125452372304</v>
+        <v>0.9672818198699927</v>
       </c>
       <c r="D22">
-        <v>0.9816765791111338</v>
+        <v>0.9946694826051049</v>
       </c>
       <c r="E22">
-        <v>0.9666477050602957</v>
+        <v>0.9794250390422967</v>
       </c>
       <c r="F22">
-        <v>0.9735298541856182</v>
+        <v>0.9904427196474973</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029054284284744</v>
+        <v>1.032615808317522</v>
       </c>
       <c r="J22">
-        <v>0.9840642756866594</v>
+        <v>0.9995283777445473</v>
       </c>
       <c r="K22">
-        <v>0.997619980577513</v>
+        <v>1.01034728289478</v>
       </c>
       <c r="L22">
-        <v>0.9829101527555816</v>
+        <v>0.9954154138193362</v>
       </c>
       <c r="M22">
-        <v>0.9896445821113813</v>
+        <v>1.006205915819336</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.954756809051583</v>
+        <v>0.9702088843751533</v>
       </c>
       <c r="D23">
-        <v>0.9844653391837348</v>
+        <v>0.9969440708082054</v>
       </c>
       <c r="E23">
-        <v>0.9697769143268101</v>
+        <v>0.9818075520419004</v>
       </c>
       <c r="F23">
-        <v>0.9768854364261532</v>
+        <v>0.9930816293928929</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030390646151527</v>
+        <v>1.033505649338587</v>
       </c>
       <c r="J23">
-        <v>0.9869066769946068</v>
+        <v>1.0016209424267</v>
       </c>
       <c r="K23">
-        <v>1.000030840080211</v>
+        <v>1.012262088855981</v>
       </c>
       <c r="L23">
-        <v>0.985644517256421</v>
+        <v>0.9974268340405616</v>
       </c>
       <c r="M23">
-        <v>0.9926053388162357</v>
+        <v>1.008475376088873</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9688612199178709</v>
+        <v>0.9813453632915359</v>
       </c>
       <c r="D24">
-        <v>0.9949906248982341</v>
+        <v>1.005613965805849</v>
       </c>
       <c r="E24">
-        <v>0.9815910149855648</v>
+        <v>0.9908949383376197</v>
       </c>
       <c r="F24">
-        <v>0.9895554399538622</v>
+        <v>1.003144588075797</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035397110144167</v>
+        <v>1.036870253608166</v>
       </c>
       <c r="J24">
-        <v>0.9976129610645342</v>
+        <v>1.009580913092833</v>
       </c>
       <c r="K24">
-        <v>1.009106285599865</v>
+        <v>1.019543205991907</v>
       </c>
       <c r="L24">
-        <v>0.9959493140695134</v>
+        <v>1.005083858297982</v>
       </c>
       <c r="M24">
-        <v>1.003768490507203</v>
+        <v>1.017116705353013</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9840917156767771</v>
+        <v>0.9935549195412472</v>
       </c>
       <c r="D25">
-        <v>1.006387171602235</v>
+        <v>1.015145578802258</v>
       </c>
       <c r="E25">
-        <v>0.9943936623235057</v>
+        <v>1.000898926297339</v>
       </c>
       <c r="F25">
-        <v>1.003288215129379</v>
+        <v>1.014218226175126</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040742686583873</v>
+        <v>1.040513444909537</v>
       </c>
       <c r="J25">
-        <v>1.009166579281791</v>
+        <v>1.018301150314212</v>
       </c>
       <c r="K25">
-        <v>1.018887137559801</v>
+        <v>1.02751324229404</v>
       </c>
       <c r="L25">
-        <v>1.007079637407117</v>
+        <v>1.01348330360225</v>
       </c>
       <c r="M25">
-        <v>1.015835699352971</v>
+        <v>1.026599760404499</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_25/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002793348384528</v>
+        <v>1.000997504286904</v>
       </c>
       <c r="D2">
-        <v>1.022373664952938</v>
+        <v>1.016909612665744</v>
       </c>
       <c r="E2">
-        <v>1.008496774467974</v>
+        <v>1.007010503651445</v>
       </c>
       <c r="F2">
-        <v>1.022625447356851</v>
+        <v>0.9779057652731876</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043230885344171</v>
+        <v>1.040387237289236</v>
       </c>
       <c r="J2">
-        <v>1.024890830674611</v>
+        <v>1.023148421052093</v>
       </c>
       <c r="K2">
-        <v>1.03352985638185</v>
+        <v>1.028138290952794</v>
       </c>
       <c r="L2">
-        <v>1.019838991425428</v>
+        <v>1.018373027446547</v>
       </c>
       <c r="M2">
-        <v>1.033778322016631</v>
+        <v>0.9896817379734926</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009243640554388</v>
+        <v>1.007198303573916</v>
       </c>
       <c r="D3">
-        <v>1.027427349368012</v>
+        <v>1.021447026295932</v>
       </c>
       <c r="E3">
-        <v>1.013816048251706</v>
+        <v>1.012104771415704</v>
       </c>
       <c r="F3">
-        <v>1.028509825396974</v>
+        <v>0.9868588068491405</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045104303509732</v>
+        <v>1.042478167761292</v>
       </c>
       <c r="J3">
-        <v>1.029485447681238</v>
+        <v>1.027494640698365</v>
       </c>
       <c r="K3">
-        <v>1.037720919096749</v>
+        <v>1.03181265004325</v>
       </c>
       <c r="L3">
-        <v>1.024275150259024</v>
+        <v>1.022585077259709</v>
       </c>
       <c r="M3">
-        <v>1.038790463952865</v>
+        <v>0.9976626397014078</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013307616640296</v>
+        <v>1.011097111957444</v>
       </c>
       <c r="D4">
-        <v>1.030613997222195</v>
+        <v>1.024302778731231</v>
       </c>
       <c r="E4">
-        <v>1.017173553399202</v>
+        <v>1.015313558544823</v>
       </c>
       <c r="F4">
-        <v>1.032223369440016</v>
+        <v>0.9924761033079109</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046273198065047</v>
+        <v>1.043781689114033</v>
       </c>
       <c r="J4">
-        <v>1.032376931086665</v>
+        <v>1.03022115002219</v>
       </c>
       <c r="K4">
-        <v>1.040356461868635</v>
+        <v>1.034116478573567</v>
       </c>
       <c r="L4">
-        <v>1.027069034745546</v>
+        <v>1.025230609953915</v>
       </c>
       <c r="M4">
-        <v>1.04194784053448</v>
+        <v>1.002666191434932</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014991111432031</v>
+        <v>1.012710405272037</v>
       </c>
       <c r="D5">
-        <v>1.031934594008886</v>
+        <v>1.025485060072541</v>
       </c>
       <c r="E5">
-        <v>1.018565786461615</v>
+        <v>1.016642634291202</v>
       </c>
       <c r="F5">
-        <v>1.033763090363863</v>
+        <v>0.9947980906098155</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046754608943948</v>
+        <v>1.044318357319114</v>
       </c>
       <c r="J5">
-        <v>1.033573865126878</v>
+        <v>1.031347844470437</v>
       </c>
       <c r="K5">
-        <v>1.041446955868594</v>
+        <v>1.035068192341704</v>
       </c>
       <c r="L5">
-        <v>1.02822607056108</v>
+        <v>1.026324591870815</v>
       </c>
       <c r="M5">
-        <v>1.043255585334278</v>
+        <v>1.004733518475162</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015272347200343</v>
+        <v>1.012979812351186</v>
       </c>
       <c r="D6">
-        <v>1.032155234813948</v>
+        <v>1.025682524396758</v>
       </c>
       <c r="E6">
-        <v>1.018798445336745</v>
+        <v>1.01686465436306</v>
       </c>
       <c r="F6">
-        <v>1.034020387749512</v>
+        <v>0.9951857158099119</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046834864583207</v>
+        <v>1.044407815707179</v>
       </c>
       <c r="J6">
-        <v>1.033773766549891</v>
+        <v>1.031535903933241</v>
       </c>
       <c r="K6">
-        <v>1.041629051078676</v>
+        <v>1.035227026204144</v>
       </c>
       <c r="L6">
-        <v>1.028419337946259</v>
+        <v>1.026507234884412</v>
       </c>
       <c r="M6">
-        <v>1.043474036909545</v>
+        <v>1.005078573728764</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01333020818495</v>
+        <v>1.011118768320077</v>
       </c>
       <c r="D7">
-        <v>1.030631716885711</v>
+        <v>1.024318647064257</v>
       </c>
       <c r="E7">
-        <v>1.017192230966145</v>
+        <v>1.015331394567264</v>
       </c>
       <c r="F7">
-        <v>1.032244026212719</v>
+        <v>0.9925072818658306</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046279669478833</v>
+        <v>1.043788903988975</v>
       </c>
       <c r="J7">
-        <v>1.032392996729228</v>
+        <v>1.030236280436986</v>
       </c>
       <c r="K7">
-        <v>1.040371100813022</v>
+        <v>1.034129260439658</v>
       </c>
       <c r="L7">
-        <v>1.027084562878598</v>
+        <v>1.025245298121572</v>
       </c>
       <c r="M7">
-        <v>1.04196539058325</v>
+        <v>1.00269395439459</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004996791498872</v>
+        <v>1.003117486587165</v>
       </c>
       <c r="D8">
-        <v>1.024099418051602</v>
+        <v>1.01846025922392</v>
       </c>
       <c r="E8">
-        <v>1.010312520207963</v>
+        <v>1.00875092791183</v>
       </c>
       <c r="F8">
-        <v>1.024634235175379</v>
+        <v>0.9809695499804348</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043873226410017</v>
+        <v>1.041104434461747</v>
       </c>
       <c r="J8">
-        <v>1.026461033745458</v>
+        <v>1.024635642065802</v>
       </c>
       <c r="K8">
-        <v>1.034962549943732</v>
+        <v>1.029395848355593</v>
       </c>
       <c r="L8">
-        <v>1.021354590541234</v>
+        <v>1.019813652832137</v>
       </c>
       <c r="M8">
-        <v>1.03549054696015</v>
+        <v>0.9924136241483682</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9894084081916804</v>
+        <v>0.9880786154201689</v>
       </c>
       <c r="D9">
-        <v>1.011905670369147</v>
+        <v>1.007475869795337</v>
       </c>
       <c r="E9">
-        <v>0.9974966735918275</v>
+        <v>0.996432218701273</v>
       </c>
       <c r="F9">
-        <v>1.010452702687811</v>
+        <v>0.9591607937381061</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039282226288561</v>
+        <v>1.035970144146143</v>
       </c>
       <c r="J9">
-        <v>1.015340807900245</v>
+        <v>1.014059487772447</v>
       </c>
       <c r="K9">
-        <v>1.024808495077937</v>
+        <v>1.02044880958168</v>
       </c>
       <c r="L9">
-        <v>1.010630496510494</v>
+        <v>1.009583447106834</v>
       </c>
       <c r="M9">
-        <v>1.023378438290758</v>
+        <v>0.9729531362636028</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9783112318502011</v>
+        <v>0.977310730165365</v>
       </c>
       <c r="D10">
-        <v>1.003249454923798</v>
+        <v>0.9996354399364246</v>
       </c>
       <c r="E10">
-        <v>0.9884155301411476</v>
+        <v>0.9876510034435253</v>
       </c>
       <c r="F10">
-        <v>1.000399376450963</v>
+        <v>0.9434195115659477</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035957110018525</v>
+        <v>1.032236091487988</v>
       </c>
       <c r="J10">
-        <v>1.007412596116991</v>
+        <v>1.006454402365529</v>
       </c>
       <c r="K10">
-        <v>1.017560286269481</v>
+        <v>1.014011279748953</v>
       </c>
       <c r="L10">
-        <v>1.002997144011029</v>
+        <v>1.002246860817581</v>
       </c>
       <c r="M10">
-        <v>1.01476142377472</v>
+        <v>0.9588914451615067</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9733140070579671</v>
+        <v>0.972443247262428</v>
       </c>
       <c r="D11">
-        <v>0.9993589732485888</v>
+        <v>0.99609861200424</v>
       </c>
       <c r="E11">
-        <v>0.9843377270216178</v>
+        <v>0.9836921362678814</v>
       </c>
       <c r="F11">
-        <v>0.9958838078090926</v>
+        <v>0.9362623132751554</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034447256323219</v>
+        <v>1.03053499871163</v>
       </c>
       <c r="J11">
-        <v>1.003840693890054</v>
+        <v>1.003009117442746</v>
       </c>
       <c r="K11">
-        <v>1.014292988528503</v>
+        <v>1.011094479747551</v>
       </c>
       <c r="L11">
-        <v>0.999561181222989</v>
+        <v>0.9989282902762519</v>
       </c>
       <c r="M11">
-        <v>1.010883769215359</v>
+        <v>0.9524953870565019</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9714265645366905</v>
+        <v>0.9706016083117591</v>
       </c>
       <c r="D12">
-        <v>0.9978908438836358</v>
+        <v>0.9947616790087169</v>
       </c>
       <c r="E12">
-        <v>0.9827994310484649</v>
+        <v>0.982195986238792</v>
       </c>
       <c r="F12">
-        <v>0.9941801739964268</v>
+        <v>0.9335469256675691</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033875201064957</v>
+        <v>1.029889455573678</v>
       </c>
       <c r="J12">
-        <v>1.002491440233933</v>
+        <v>1.001704462715529</v>
       </c>
       <c r="K12">
-        <v>1.013058563859855</v>
+        <v>1.009989929834213</v>
       </c>
       <c r="L12">
-        <v>0.9982637564936541</v>
+        <v>0.9976724211646045</v>
       </c>
       <c r="M12">
-        <v>1.00941972855959</v>
+        <v>0.9500685037535934</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9718328828877647</v>
+        <v>0.9709982183439593</v>
       </c>
       <c r="D13">
-        <v>0.9982068333541909</v>
+        <v>0.9950495383985799</v>
       </c>
       <c r="E13">
-        <v>0.9831304995788743</v>
+        <v>0.9825181135744443</v>
       </c>
       <c r="F13">
-        <v>0.9945468352763064</v>
+        <v>0.9341320596084052</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033998429091146</v>
+        <v>1.030028563909391</v>
       </c>
       <c r="J13">
-        <v>1.002781905344884</v>
+        <v>1.001985479370539</v>
       </c>
       <c r="K13">
-        <v>1.013324318743306</v>
+        <v>1.010227844985607</v>
       </c>
       <c r="L13">
-        <v>0.9985430420935384</v>
+        <v>0.9979428927673758</v>
       </c>
       <c r="M13">
-        <v>1.009734872494092</v>
+        <v>0.9505914784393592</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9731586427668771</v>
+        <v>0.9722917208944131</v>
       </c>
       <c r="D14">
-        <v>0.9992380972503746</v>
+        <v>0.9959885857120647</v>
       </c>
       <c r="E14">
-        <v>0.9842110635485415</v>
+        <v>0.9835690006390985</v>
       </c>
       <c r="F14">
-        <v>0.9957435344765504</v>
+        <v>0.9360390545853419</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034400203448701</v>
+        <v>1.030481923451126</v>
       </c>
       <c r="J14">
-        <v>1.003729632930467</v>
+        <v>1.002901795542312</v>
       </c>
       <c r="K14">
-        <v>1.01419138400359</v>
+        <v>1.011003618766662</v>
       </c>
       <c r="L14">
-        <v>0.9994543766464642</v>
+        <v>0.9988249650239277</v>
       </c>
       <c r="M14">
-        <v>1.010763245307827</v>
+        <v>0.952295853825199</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9739712700353554</v>
+        <v>0.9730841412097556</v>
       </c>
       <c r="D15">
-        <v>0.9998703885910706</v>
+        <v>0.9965640292717979</v>
       </c>
       <c r="E15">
-        <v>0.9848736497058059</v>
+        <v>0.9842130193363869</v>
       </c>
       <c r="F15">
-        <v>0.9964773067403949</v>
+        <v>0.9372062961327676</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03464623970205</v>
+        <v>1.03075940719765</v>
       </c>
       <c r="J15">
-        <v>1.004310527662717</v>
+        <v>1.003462999624833</v>
       </c>
       <c r="K15">
-        <v>1.014722808405887</v>
+        <v>1.011478745393983</v>
       </c>
       <c r="L15">
-        <v>1.000013028306833</v>
+        <v>0.999365302784596</v>
       </c>
       <c r="M15">
-        <v>1.011393664105651</v>
+        <v>0.9533390437776802</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9786386360417914</v>
+        <v>0.977629216572766</v>
       </c>
       <c r="D16">
-        <v>1.003504518361</v>
+        <v>0.9998670233156312</v>
       </c>
       <c r="E16">
-        <v>0.9886829481874057</v>
+        <v>0.9879102665690208</v>
       </c>
       <c r="F16">
-        <v>1.000695476295818</v>
+        <v>0.9438868621056502</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036055779699924</v>
+        <v>1.032347128249558</v>
       </c>
       <c r="J16">
-        <v>1.007646590244666</v>
+        <v>1.006679678293546</v>
       </c>
       <c r="K16">
-        <v>1.017774292003363</v>
+        <v>1.014201994306518</v>
       </c>
       <c r="L16">
-        <v>1.003222298123466</v>
+        <v>1.002463959483929</v>
       </c>
       <c r="M16">
-        <v>1.015015544188256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9593090516510727</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9815133186031249</v>
+        <v>0.9804234607405374</v>
       </c>
       <c r="D17">
-        <v>1.005744904484392</v>
+        <v>1.001899667128925</v>
       </c>
       <c r="E17">
-        <v>0.9910322641207814</v>
+        <v>0.9901861212436841</v>
       </c>
       <c r="F17">
-        <v>1.003296627643712</v>
+        <v>0.947982354244839</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03692071741723</v>
+        <v>1.033319830563828</v>
       </c>
       <c r="J17">
-        <v>1.009700929559119</v>
+        <v>1.008655294228906</v>
       </c>
       <c r="K17">
-        <v>1.01965294897214</v>
+        <v>1.015874470083229</v>
       </c>
       <c r="L17">
-        <v>1.00519937873995</v>
+        <v>1.004368439556841</v>
       </c>
       <c r="M17">
-        <v>1.017247100884813</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9629683529747397</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9831717149444636</v>
+        <v>0.9820337358657023</v>
       </c>
       <c r="D18">
-        <v>1.007038076225511</v>
+        <v>1.003071724913992</v>
       </c>
       <c r="E18">
-        <v>0.9923886584006202</v>
+        <v>0.9914986424902849</v>
       </c>
       <c r="F18">
-        <v>1.004798307079335</v>
+        <v>0.9503386946315161</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037418512828653</v>
+        <v>1.033879141236624</v>
       </c>
       <c r="J18">
-        <v>1.010885903820871</v>
+        <v>1.009793101489092</v>
       </c>
       <c r="K18">
-        <v>1.020736419201902</v>
+        <v>1.01683764620271</v>
       </c>
       <c r="L18">
-        <v>1.006340079753224</v>
+        <v>1.005465751919874</v>
       </c>
       <c r="M18">
-        <v>1.018534726336156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9650734857972235</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9837341399813962</v>
+        <v>0.9825795609549119</v>
       </c>
       <c r="D19">
-        <v>1.007476753715857</v>
+        <v>1.003469121455528</v>
       </c>
       <c r="E19">
-        <v>0.9928488423178708</v>
+        <v>0.9919437034541506</v>
       </c>
       <c r="F19">
-        <v>1.005307762990197</v>
+        <v>0.951136792573523</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037587130534878</v>
+        <v>1.0340685153257</v>
       </c>
       <c r="J19">
-        <v>1.011287742002637</v>
+        <v>1.010178656712044</v>
       </c>
       <c r="K19">
-        <v>1.021103806866695</v>
+        <v>1.017164017324436</v>
       </c>
       <c r="L19">
-        <v>1.006726953307578</v>
+        <v>1.005837664469478</v>
       </c>
       <c r="M19">
-        <v>1.018971446972554</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9657864544736467</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.981206807618997</v>
+        <v>0.980125707413901</v>
       </c>
       <c r="D20">
-        <v>1.005505951150929</v>
+        <v>1.001682997945622</v>
       </c>
       <c r="E20">
-        <v>0.9907816567679263</v>
+        <v>0.9899435040590898</v>
       </c>
       <c r="F20">
-        <v>1.003019168298306</v>
+        <v>0.9475463454439909</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036828616481984</v>
+        <v>1.033216308470416</v>
       </c>
       <c r="J20">
-        <v>1.009481903870611</v>
+        <v>1.008444846826172</v>
       </c>
       <c r="K20">
-        <v>1.019452671067345</v>
+        <v>1.015696318278157</v>
       </c>
       <c r="L20">
-        <v>1.004988559777951</v>
+        <v>1.004165520188623</v>
       </c>
       <c r="M20">
-        <v>1.017009136209811</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9625788060948519</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9727691227636189</v>
+        <v>0.9719117700609599</v>
       </c>
       <c r="D21">
-        <v>0.9989350656966002</v>
+        <v>0.9957127164321028</v>
       </c>
       <c r="E21">
-        <v>0.9838935313125582</v>
+        <v>0.9832602672134808</v>
       </c>
       <c r="F21">
-        <v>0.9953918805140352</v>
+        <v>0.93547911197947</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034282206901141</v>
+        <v>1.030348806993462</v>
       </c>
       <c r="J21">
-        <v>1.00345118548649</v>
+        <v>1.002632669123983</v>
       </c>
       <c r="K21">
-        <v>1.013936641711096</v>
+        <v>1.01077577050135</v>
       </c>
       <c r="L21">
-        <v>0.9991866083865322</v>
+        <v>0.9985658738539903</v>
       </c>
       <c r="M21">
-        <v>1.010461084220746</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9517954118460552</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9672818198699927</v>
+        <v>0.9665510098974832</v>
       </c>
       <c r="D22">
-        <v>0.9946694826051049</v>
+        <v>0.991823623921621</v>
       </c>
       <c r="E22">
-        <v>0.9794250390422967</v>
+        <v>0.9789085711690075</v>
       </c>
       <c r="F22">
-        <v>0.9904427196474973</v>
+        <v>0.9275593863783217</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032615808317522</v>
+        <v>1.028466122196749</v>
       </c>
       <c r="J22">
-        <v>0.9995283777445473</v>
+        <v>0.9988328978766481</v>
       </c>
       <c r="K22">
-        <v>1.01034728289478</v>
+        <v>1.00755881539449</v>
       </c>
       <c r="L22">
-        <v>0.9954154138193362</v>
+        <v>0.9949097611752167</v>
       </c>
       <c r="M22">
-        <v>1.006205915819336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9447167783338604</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9702088843751533</v>
+        <v>0.9694125167179755</v>
       </c>
       <c r="D23">
-        <v>0.9969440708082054</v>
+        <v>0.993898831073021</v>
       </c>
       <c r="E23">
-        <v>0.9818075520419004</v>
+        <v>0.9812304645241979</v>
       </c>
       <c r="F23">
-        <v>0.9930816293928929</v>
+        <v>0.931791423694549</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033505649338587</v>
+        <v>1.029472111518005</v>
       </c>
       <c r="J23">
-        <v>1.0016209424267</v>
+        <v>1.000861773947659</v>
       </c>
       <c r="K23">
-        <v>1.012262088855981</v>
+        <v>1.009276490920036</v>
       </c>
       <c r="L23">
-        <v>0.9974268340405616</v>
+        <v>0.9968614747953155</v>
       </c>
       <c r="M23">
-        <v>1.008475376088873</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9484994608909657</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9813453632915359</v>
+        <v>0.9802603095616823</v>
       </c>
       <c r="D24">
-        <v>1.005613965805849</v>
+        <v>1.00178094315454</v>
       </c>
       <c r="E24">
-        <v>0.9908949383376197</v>
+        <v>0.9900531783526552</v>
       </c>
       <c r="F24">
-        <v>1.003144588075797</v>
+        <v>0.9477434590438478</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036870253608166</v>
+        <v>1.033263110449668</v>
       </c>
       <c r="J24">
-        <v>1.009580913092833</v>
+        <v>1.008539983718182</v>
       </c>
       <c r="K24">
-        <v>1.019543205991907</v>
+        <v>1.015776855452678</v>
       </c>
       <c r="L24">
-        <v>1.005083858297982</v>
+        <v>1.004257252414446</v>
       </c>
       <c r="M24">
-        <v>1.017116705353013</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9627549156679291</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9935549195412472</v>
+        <v>0.9920884608788337</v>
       </c>
       <c r="D25">
-        <v>1.015145578802258</v>
+        <v>1.010400963883515</v>
       </c>
       <c r="E25">
-        <v>1.000898926297339</v>
+        <v>0.9997105275919755</v>
       </c>
       <c r="F25">
-        <v>1.014218226175126</v>
+        <v>0.9649938551201813</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040513444909537</v>
+        <v>1.037349151431162</v>
       </c>
       <c r="J25">
-        <v>1.018301150314212</v>
+        <v>1.016885045189104</v>
       </c>
       <c r="K25">
-        <v>1.02751324229404</v>
+        <v>1.022839935751636</v>
       </c>
       <c r="L25">
-        <v>1.01348330360225</v>
+        <v>1.012313338909336</v>
       </c>
       <c r="M25">
-        <v>1.026599760404499</v>
+        <v>0.9781610448467719</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_25/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000997504286904</v>
+        <v>1.037478228321651</v>
       </c>
       <c r="D2">
-        <v>1.016909612665744</v>
+        <v>1.038879757060748</v>
       </c>
       <c r="E2">
-        <v>1.007010503651445</v>
+        <v>1.036232274417504</v>
       </c>
       <c r="F2">
-        <v>0.9779057652731876</v>
+        <v>1.036181704921944</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040387237289236</v>
+        <v>1.037523701088701</v>
       </c>
       <c r="J2">
-        <v>1.023148421052093</v>
+        <v>1.04258088169361</v>
       </c>
       <c r="K2">
-        <v>1.028138290952794</v>
+        <v>1.041666532877474</v>
       </c>
       <c r="L2">
-        <v>1.018373027446547</v>
+        <v>1.039026604927106</v>
       </c>
       <c r="M2">
-        <v>0.9896817379734926</v>
+        <v>1.038976180141608</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007198303573916</v>
+        <v>1.038703356110267</v>
       </c>
       <c r="D3">
-        <v>1.021447026295932</v>
+        <v>1.039788269039322</v>
       </c>
       <c r="E3">
-        <v>1.012104771415704</v>
+        <v>1.037282930358146</v>
       </c>
       <c r="F3">
-        <v>0.9868588068491405</v>
+        <v>1.038037252531344</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042478167761292</v>
+        <v>1.037867201169698</v>
       </c>
       <c r="J3">
-        <v>1.027494640698365</v>
+        <v>1.043449020560751</v>
       </c>
       <c r="K3">
-        <v>1.03181265004325</v>
+        <v>1.04238488913646</v>
       </c>
       <c r="L3">
-        <v>1.022585077259709</v>
+        <v>1.039886180046278</v>
       </c>
       <c r="M3">
-        <v>0.9976626397014078</v>
+        <v>1.040638502504299</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.011097111957444</v>
+        <v>1.039495071171303</v>
       </c>
       <c r="D4">
-        <v>1.024302778731231</v>
+        <v>1.040375253318094</v>
       </c>
       <c r="E4">
-        <v>1.015313558544823</v>
+        <v>1.037962170088302</v>
       </c>
       <c r="F4">
-        <v>0.9924761033079109</v>
+        <v>1.03923668466756</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043781689114033</v>
+        <v>1.038087786329221</v>
       </c>
       <c r="J4">
-        <v>1.03022115002219</v>
+        <v>1.044009249485433</v>
       </c>
       <c r="K4">
-        <v>1.034116478573567</v>
+        <v>1.042848203570965</v>
       </c>
       <c r="L4">
-        <v>1.025230609953915</v>
+        <v>1.040441182765688</v>
       </c>
       <c r="M4">
-        <v>1.002666191434932</v>
+        <v>1.041712491584502</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012710405272037</v>
+        <v>1.03982766719519</v>
       </c>
       <c r="D5">
-        <v>1.025485060072541</v>
+        <v>1.040621812321287</v>
       </c>
       <c r="E5">
-        <v>1.016642634291202</v>
+        <v>1.038247580570004</v>
       </c>
       <c r="F5">
-        <v>0.9947980906098155</v>
+        <v>1.039740642732961</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044318357319114</v>
+        <v>1.038180118931455</v>
       </c>
       <c r="J5">
-        <v>1.031347844470437</v>
+        <v>1.044244410191316</v>
       </c>
       <c r="K5">
-        <v>1.035068192341704</v>
+        <v>1.043042621850265</v>
       </c>
       <c r="L5">
-        <v>1.026324591870815</v>
+        <v>1.040674221462992</v>
       </c>
       <c r="M5">
-        <v>1.004733518475162</v>
+        <v>1.042163613164486</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012979812351186</v>
+        <v>1.039883497523653</v>
       </c>
       <c r="D6">
-        <v>1.025682524396758</v>
+        <v>1.040663198464676</v>
       </c>
       <c r="E6">
-        <v>1.01686465436306</v>
+        <v>1.038295494009012</v>
       </c>
       <c r="F6">
-        <v>0.9951857158099119</v>
+        <v>1.039825243237108</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044407815707179</v>
+        <v>1.038195598482827</v>
       </c>
       <c r="J6">
-        <v>1.031535903933241</v>
+        <v>1.044283873716584</v>
       </c>
       <c r="K6">
-        <v>1.035227026204144</v>
+        <v>1.043075244546273</v>
       </c>
       <c r="L6">
-        <v>1.026507234884412</v>
+        <v>1.04071333308673</v>
       </c>
       <c r="M6">
-        <v>1.005078573728764</v>
+        <v>1.042239336276636</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.011118768320077</v>
+        <v>1.039499516277262</v>
       </c>
       <c r="D7">
-        <v>1.024318647064257</v>
+        <v>1.040378548670602</v>
       </c>
       <c r="E7">
-        <v>1.015331394567264</v>
+        <v>1.037965984311102</v>
       </c>
       <c r="F7">
-        <v>0.9925072818658306</v>
+        <v>1.039243419678419</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043788903988975</v>
+        <v>1.038089021657518</v>
       </c>
       <c r="J7">
-        <v>1.030236280436986</v>
+        <v>1.04401239312313</v>
       </c>
       <c r="K7">
-        <v>1.034129260439658</v>
+        <v>1.042850802805613</v>
       </c>
       <c r="L7">
-        <v>1.025245298121572</v>
+        <v>1.040444297754391</v>
       </c>
       <c r="M7">
-        <v>1.00269395439459</v>
+        <v>1.041718520987033</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.003117486587165</v>
+        <v>1.037892480720221</v>
       </c>
       <c r="D8">
-        <v>1.01846025922392</v>
+        <v>1.039186977354732</v>
       </c>
       <c r="E8">
-        <v>1.00875092791183</v>
+        <v>1.036587475526745</v>
       </c>
       <c r="F8">
-        <v>0.9809695499804348</v>
+        <v>1.036809057834881</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041104434461747</v>
+        <v>1.037640137716134</v>
       </c>
       <c r="J8">
-        <v>1.024635642065802</v>
+        <v>1.042874588877741</v>
       </c>
       <c r="K8">
-        <v>1.029395848355593</v>
+        <v>1.041909618871735</v>
       </c>
       <c r="L8">
-        <v>1.019813652832137</v>
+        <v>1.03931735249519</v>
       </c>
       <c r="M8">
-        <v>0.9924136241483682</v>
+        <v>1.039538316517614</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9880786154201689</v>
+        <v>1.035052638911062</v>
       </c>
       <c r="D9">
-        <v>1.007475869795337</v>
+        <v>1.037080400641472</v>
       </c>
       <c r="E9">
-        <v>0.996432218701273</v>
+        <v>1.034153602216399</v>
       </c>
       <c r="F9">
-        <v>0.9591607937381061</v>
+        <v>1.032509452394138</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035970144146143</v>
+        <v>1.036836200442944</v>
       </c>
       <c r="J9">
-        <v>1.014059487772447</v>
+        <v>1.040857887343311</v>
       </c>
       <c r="K9">
-        <v>1.02044880958168</v>
+        <v>1.040239458036682</v>
       </c>
       <c r="L9">
-        <v>1.009583447106834</v>
+        <v>1.037322214968798</v>
       </c>
       <c r="M9">
-        <v>0.9729531362636028</v>
+        <v>1.035683458989513</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.977310730165365</v>
+        <v>1.033153732998444</v>
       </c>
       <c r="D10">
-        <v>0.9996354399364246</v>
+        <v>1.035671240021467</v>
       </c>
       <c r="E10">
-        <v>0.9876510034435253</v>
+        <v>1.03252762947213</v>
       </c>
       <c r="F10">
-        <v>0.9434195115659477</v>
+        <v>1.029635632796225</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032236091487988</v>
+        <v>1.036291450377111</v>
       </c>
       <c r="J10">
-        <v>1.006454402365529</v>
+        <v>1.039505321742256</v>
       </c>
       <c r="K10">
-        <v>1.014011279748953</v>
+        <v>1.039118013627882</v>
       </c>
       <c r="L10">
-        <v>1.002246860817581</v>
+        <v>1.035985680465977</v>
       </c>
       <c r="M10">
-        <v>0.9588914451615067</v>
+        <v>1.033104125688684</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.972443247262428</v>
+        <v>1.032330077603943</v>
       </c>
       <c r="D11">
-        <v>0.99609861200424</v>
+        <v>1.035059890107805</v>
       </c>
       <c r="E11">
-        <v>0.9836921362678814</v>
+        <v>1.031822718662249</v>
       </c>
       <c r="F11">
-        <v>0.9362623132751554</v>
+        <v>1.028389316112926</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03053499871163</v>
+        <v>1.03605346236248</v>
       </c>
       <c r="J11">
-        <v>1.003009117442746</v>
+        <v>1.038917679694671</v>
       </c>
       <c r="K11">
-        <v>1.011094479747551</v>
+        <v>1.038630482309412</v>
       </c>
       <c r="L11">
-        <v>0.9989282902762519</v>
+        <v>1.035405377490515</v>
       </c>
       <c r="M11">
-        <v>0.9524953870565019</v>
+        <v>1.031984864960498</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9706016083117591</v>
+        <v>1.032023917101108</v>
       </c>
       <c r="D12">
-        <v>0.9947616790087169</v>
+        <v>1.03483262802729</v>
       </c>
       <c r="E12">
-        <v>0.982195986238792</v>
+        <v>1.031560751360062</v>
       </c>
       <c r="F12">
-        <v>0.9335469256675691</v>
+        <v>1.027926074054699</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029889455573678</v>
+        <v>1.035964744588052</v>
       </c>
       <c r="J12">
-        <v>1.001704462715529</v>
+        <v>1.038699102958051</v>
       </c>
       <c r="K12">
-        <v>1.009989929834213</v>
+        <v>1.038449097120726</v>
       </c>
       <c r="L12">
-        <v>0.9976724211646045</v>
+        <v>1.035189586953487</v>
       </c>
       <c r="M12">
-        <v>0.9500685037535934</v>
+        <v>1.031568749739562</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9709982183439593</v>
+        <v>1.03208959952994</v>
       </c>
       <c r="D13">
-        <v>0.9950495383985799</v>
+        <v>1.034881384688183</v>
       </c>
       <c r="E13">
-        <v>0.9825181135744443</v>
+        <v>1.031616950271464</v>
       </c>
       <c r="F13">
-        <v>0.9341320596084052</v>
+        <v>1.02802545505639</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030028563909391</v>
+        <v>1.035983789290177</v>
       </c>
       <c r="J13">
-        <v>1.001985479370539</v>
+        <v>1.038746002064726</v>
       </c>
       <c r="K13">
-        <v>1.010227844985607</v>
+        <v>1.038488018229669</v>
       </c>
       <c r="L13">
-        <v>0.9979428927673758</v>
+        <v>1.035235885682573</v>
       </c>
       <c r="M13">
-        <v>0.9505914784393592</v>
+        <v>1.031658024900671</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9722917208944131</v>
+        <v>1.032304774764128</v>
       </c>
       <c r="D14">
-        <v>0.9959885857120647</v>
+        <v>1.035041108233244</v>
       </c>
       <c r="E14">
-        <v>0.9835690006390985</v>
+        <v>1.031801067078779</v>
       </c>
       <c r="F14">
-        <v>0.9360390545853419</v>
+        <v>1.028351030674069</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030481923451126</v>
+        <v>1.036046135429787</v>
       </c>
       <c r="J14">
-        <v>1.002901795542312</v>
+        <v>1.038899618223115</v>
       </c>
       <c r="K14">
-        <v>1.011003618766662</v>
+        <v>1.038615494975892</v>
       </c>
       <c r="L14">
-        <v>0.9988249650239277</v>
+        <v>1.035387545097773</v>
       </c>
       <c r="M14">
-        <v>0.952295853825199</v>
+        <v>1.031950476407016</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9730841412097556</v>
+        <v>1.032437322249959</v>
       </c>
       <c r="D15">
-        <v>0.9965640292717979</v>
+        <v>1.035139495301461</v>
       </c>
       <c r="E15">
-        <v>0.9842130193363869</v>
+        <v>1.031914489910701</v>
       </c>
       <c r="F15">
-        <v>0.9372062961327676</v>
+        <v>1.028551587780544</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03075940719765</v>
+        <v>1.036084506695577</v>
       </c>
       <c r="J15">
-        <v>1.003462999624833</v>
+        <v>1.038994226292944</v>
       </c>
       <c r="K15">
-        <v>1.011478745393983</v>
+        <v>1.038693998508673</v>
       </c>
       <c r="L15">
-        <v>0.999365302784596</v>
+        <v>1.035480955535515</v>
       </c>
       <c r="M15">
-        <v>0.9533390437776802</v>
+        <v>1.032130615768713</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.977629216572766</v>
+        <v>1.033208365989241</v>
       </c>
       <c r="D16">
-        <v>0.9998670233156312</v>
+        <v>1.035711788300682</v>
       </c>
       <c r="E16">
-        <v>0.9879102665690208</v>
+        <v>1.032574393770988</v>
       </c>
       <c r="F16">
-        <v>0.9438868621056502</v>
+        <v>1.029718304792633</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032347128249558</v>
+        <v>1.036307200300687</v>
       </c>
       <c r="J16">
-        <v>1.006679678293546</v>
+        <v>1.039544279715603</v>
       </c>
       <c r="K16">
-        <v>1.014201994306518</v>
+        <v>1.039150328369005</v>
       </c>
       <c r="L16">
-        <v>1.002463959483929</v>
+        <v>1.036024159780079</v>
       </c>
       <c r="M16">
-        <v>0.9593090516510727</v>
+        <v>1.033178355865571</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9804234607405374</v>
+        <v>1.033691638300562</v>
       </c>
       <c r="D17">
-        <v>1.001899667128925</v>
+        <v>1.036070456061115</v>
       </c>
       <c r="E17">
-        <v>0.9901861212436841</v>
+        <v>1.032988102779286</v>
       </c>
       <c r="F17">
-        <v>0.947982354244839</v>
+        <v>1.030449627949475</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033319830563828</v>
+        <v>1.036446324588335</v>
       </c>
       <c r="J17">
-        <v>1.008655294228906</v>
+        <v>1.039888782855147</v>
       </c>
       <c r="K17">
-        <v>1.015874470083229</v>
+        <v>1.039436050856392</v>
       </c>
       <c r="L17">
-        <v>1.004368439556841</v>
+        <v>1.036364473330154</v>
       </c>
       <c r="M17">
-        <v>0.9629683529747397</v>
+        <v>1.033834926227527</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9820337358657023</v>
+        <v>1.033973386548659</v>
       </c>
       <c r="D18">
-        <v>1.003071724913992</v>
+        <v>1.036279547829997</v>
       </c>
       <c r="E18">
-        <v>0.9914986424902849</v>
+        <v>1.033229330113582</v>
       </c>
       <c r="F18">
-        <v>0.9503386946315161</v>
+        <v>1.030876010739298</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033879141236624</v>
+        <v>1.036527270196175</v>
       </c>
       <c r="J18">
-        <v>1.009793101489092</v>
+        <v>1.040089535691118</v>
       </c>
       <c r="K18">
-        <v>1.01683764620271</v>
+        <v>1.039602521125658</v>
       </c>
       <c r="L18">
-        <v>1.005465751919874</v>
+        <v>1.03656282077397</v>
       </c>
       <c r="M18">
-        <v>0.9650734857972235</v>
+        <v>1.03421766263167</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9825795609549119</v>
+        <v>1.034069432460876</v>
       </c>
       <c r="D19">
-        <v>1.003469121455528</v>
+        <v>1.036350823634859</v>
       </c>
       <c r="E19">
-        <v>0.9919437034541506</v>
+        <v>1.033311568582599</v>
       </c>
       <c r="F19">
-        <v>0.951136792573523</v>
+        <v>1.031021365187221</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0340685153257</v>
+        <v>1.03655483613783</v>
       </c>
       <c r="J19">
-        <v>1.010178656712044</v>
+        <v>1.040157955110677</v>
       </c>
       <c r="K19">
-        <v>1.017164017324436</v>
+        <v>1.03965925159046</v>
       </c>
       <c r="L19">
-        <v>1.005837664469478</v>
+        <v>1.036630426504745</v>
       </c>
       <c r="M19">
-        <v>0.9657864544736467</v>
+        <v>1.034348127223342</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.980125707413901</v>
+        <v>1.033639801895292</v>
       </c>
       <c r="D20">
-        <v>1.001682997945622</v>
+        <v>1.036031986123459</v>
       </c>
       <c r="E20">
-        <v>0.9899435040590898</v>
+        <v>1.032943724241492</v>
       </c>
       <c r="F20">
-        <v>0.9475463454439909</v>
+        <v>1.03037118320093</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033216308470416</v>
+        <v>1.036431418903939</v>
       </c>
       <c r="J20">
-        <v>1.008444846826172</v>
+        <v>1.039851840613081</v>
       </c>
       <c r="K20">
-        <v>1.015696318278157</v>
+        <v>1.039405414885035</v>
       </c>
       <c r="L20">
-        <v>1.004165520188623</v>
+        <v>1.036327976624191</v>
       </c>
       <c r="M20">
-        <v>0.9625788060948519</v>
+        <v>1.033764506322249</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9719117700609599</v>
+        <v>1.032241417088069</v>
       </c>
       <c r="D21">
-        <v>0.9957127164321028</v>
+        <v>1.034994078610522</v>
       </c>
       <c r="E21">
-        <v>0.9832602672134808</v>
+        <v>1.031746852943334</v>
       </c>
       <c r="F21">
-        <v>0.93547911197947</v>
+        <v>1.028255165289579</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030348806993462</v>
+        <v>1.036027784850193</v>
       </c>
       <c r="J21">
-        <v>1.002632669123983</v>
+        <v>1.038854390415821</v>
       </c>
       <c r="K21">
-        <v>1.01077577050135</v>
+        <v>1.038577964402045</v>
       </c>
       <c r="L21">
-        <v>0.9985658738539903</v>
+        <v>1.035342891838983</v>
       </c>
       <c r="M21">
-        <v>0.9517954118460552</v>
+        <v>1.031864367096296</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9665510098974832</v>
+        <v>1.031360931828848</v>
       </c>
       <c r="D22">
-        <v>0.991823623921621</v>
+        <v>1.03434046485372</v>
       </c>
       <c r="E22">
-        <v>0.9789085711690075</v>
+        <v>1.030993566619421</v>
       </c>
       <c r="F22">
-        <v>0.9275593863783217</v>
+        <v>1.026922971792768</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028466122196749</v>
+        <v>1.03577216087322</v>
       </c>
       <c r="J22">
-        <v>0.9988328978766481</v>
+        <v>1.038225514343719</v>
       </c>
       <c r="K22">
-        <v>1.00755881539449</v>
+        <v>1.038056008862621</v>
       </c>
       <c r="L22">
-        <v>0.9949097611752167</v>
+        <v>1.034722138562486</v>
       </c>
       <c r="M22">
-        <v>0.9447167783338604</v>
+        <v>1.030667515879548</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9694125167179755</v>
+        <v>1.031827815462166</v>
       </c>
       <c r="D23">
-        <v>0.993898831073021</v>
+        <v>1.034687057510168</v>
       </c>
       <c r="E23">
-        <v>0.9812304645241979</v>
+        <v>1.031392971807026</v>
       </c>
       <c r="F23">
-        <v>0.931791423694549</v>
+        <v>1.027629365163806</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029472111518005</v>
+        <v>1.035907847294798</v>
       </c>
       <c r="J23">
-        <v>1.000861773947659</v>
+        <v>1.038559059685092</v>
       </c>
       <c r="K23">
-        <v>1.009276490920036</v>
+        <v>1.03833286999086</v>
       </c>
       <c r="L23">
-        <v>0.9968614747953155</v>
+        <v>1.03505134471237</v>
       </c>
       <c r="M23">
-        <v>0.9484994608909657</v>
+        <v>1.031302198139536</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9802603095616823</v>
+        <v>1.0336632249564</v>
       </c>
       <c r="D24">
-        <v>1.00178094315454</v>
+        <v>1.036049369381574</v>
       </c>
       <c r="E24">
-        <v>0.9900531783526552</v>
+        <v>1.032963777246038</v>
       </c>
       <c r="F24">
-        <v>0.9477434590438478</v>
+        <v>1.03040662957843</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033263110449668</v>
+        <v>1.036438154768965</v>
       </c>
       <c r="J24">
-        <v>1.008539983718182</v>
+        <v>1.039868533808963</v>
       </c>
       <c r="K24">
-        <v>1.015776855452678</v>
+        <v>1.039419258538845</v>
       </c>
       <c r="L24">
-        <v>1.004257252414446</v>
+        <v>1.036344468383116</v>
       </c>
       <c r="M24">
-        <v>0.9627549156679291</v>
+        <v>1.03379632675567</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9920884608788337</v>
+        <v>1.035787786781522</v>
       </c>
       <c r="D25">
-        <v>1.010400963883515</v>
+        <v>1.037625831710977</v>
       </c>
       <c r="E25">
-        <v>0.9997105275919755</v>
+        <v>1.034783400594856</v>
       </c>
       <c r="F25">
-        <v>0.9649938551201813</v>
+        <v>1.033622256976015</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037349151431162</v>
+        <v>1.03704558066865</v>
       </c>
       <c r="J25">
-        <v>1.016885045189104</v>
+        <v>1.04138066548835</v>
       </c>
       <c r="K25">
-        <v>1.022839935751636</v>
+        <v>1.040672633958485</v>
       </c>
       <c r="L25">
-        <v>1.012313338909336</v>
+        <v>1.037839128192535</v>
       </c>
       <c r="M25">
-        <v>0.9781610448467719</v>
+        <v>1.03668164605183</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_25/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037478228321651</v>
+        <v>1.000997504286905</v>
       </c>
       <c r="D2">
-        <v>1.038879757060748</v>
+        <v>1.016909612665745</v>
       </c>
       <c r="E2">
-        <v>1.036232274417504</v>
+        <v>1.007010503651446</v>
       </c>
       <c r="F2">
-        <v>1.036181704921944</v>
+        <v>0.9779057652731893</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037523701088701</v>
+        <v>1.040387237289237</v>
       </c>
       <c r="J2">
-        <v>1.04258088169361</v>
+        <v>1.023148421052094</v>
       </c>
       <c r="K2">
-        <v>1.041666532877474</v>
+        <v>1.028138290952795</v>
       </c>
       <c r="L2">
-        <v>1.039026604927106</v>
+        <v>1.018373027446548</v>
       </c>
       <c r="M2">
-        <v>1.038976180141608</v>
+        <v>0.9896817379734942</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038703356110267</v>
+        <v>1.007198303573917</v>
       </c>
       <c r="D3">
-        <v>1.039788269039322</v>
+        <v>1.021447026295933</v>
       </c>
       <c r="E3">
-        <v>1.037282930358146</v>
+        <v>1.012104771415704</v>
       </c>
       <c r="F3">
-        <v>1.038037252531344</v>
+        <v>0.9868588068491402</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037867201169698</v>
+        <v>1.042478167761292</v>
       </c>
       <c r="J3">
-        <v>1.043449020560751</v>
+        <v>1.027494640698365</v>
       </c>
       <c r="K3">
-        <v>1.04238488913646</v>
+        <v>1.031812650043251</v>
       </c>
       <c r="L3">
-        <v>1.039886180046278</v>
+        <v>1.022585077259709</v>
       </c>
       <c r="M3">
-        <v>1.040638502504299</v>
+        <v>0.9976626397014077</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039495071171303</v>
+        <v>1.011097111957445</v>
       </c>
       <c r="D4">
-        <v>1.040375253318094</v>
+        <v>1.024302778731231</v>
       </c>
       <c r="E4">
-        <v>1.037962170088302</v>
+        <v>1.015313558544824</v>
       </c>
       <c r="F4">
-        <v>1.03923668466756</v>
+        <v>0.9924761033079104</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038087786329221</v>
+        <v>1.043781689114033</v>
       </c>
       <c r="J4">
-        <v>1.044009249485433</v>
+        <v>1.03022115002219</v>
       </c>
       <c r="K4">
-        <v>1.042848203570965</v>
+        <v>1.034116478573567</v>
       </c>
       <c r="L4">
-        <v>1.040441182765688</v>
+        <v>1.025230609953915</v>
       </c>
       <c r="M4">
-        <v>1.041712491584502</v>
+        <v>1.002666191434931</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03982766719519</v>
+        <v>1.012710405272037</v>
       </c>
       <c r="D5">
-        <v>1.040621812321287</v>
+        <v>1.025485060072541</v>
       </c>
       <c r="E5">
-        <v>1.038247580570004</v>
+        <v>1.016642634291202</v>
       </c>
       <c r="F5">
-        <v>1.039740642732961</v>
+        <v>0.9947980906098151</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038180118931455</v>
+        <v>1.044318357319113</v>
       </c>
       <c r="J5">
-        <v>1.044244410191316</v>
+        <v>1.031347844470437</v>
       </c>
       <c r="K5">
-        <v>1.043042621850265</v>
+        <v>1.035068192341704</v>
       </c>
       <c r="L5">
-        <v>1.040674221462992</v>
+        <v>1.026324591870815</v>
       </c>
       <c r="M5">
-        <v>1.042163613164486</v>
+        <v>1.004733518475162</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039883497523653</v>
+        <v>1.012979812351186</v>
       </c>
       <c r="D6">
-        <v>1.040663198464676</v>
+        <v>1.025682524396758</v>
       </c>
       <c r="E6">
-        <v>1.038295494009012</v>
+        <v>1.016864654363061</v>
       </c>
       <c r="F6">
-        <v>1.039825243237108</v>
+        <v>0.9951857158099124</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038195598482827</v>
+        <v>1.04440781570718</v>
       </c>
       <c r="J6">
-        <v>1.044283873716584</v>
+        <v>1.031535903933242</v>
       </c>
       <c r="K6">
-        <v>1.043075244546273</v>
+        <v>1.035227026204145</v>
       </c>
       <c r="L6">
-        <v>1.04071333308673</v>
+        <v>1.026507234884412</v>
       </c>
       <c r="M6">
-        <v>1.042239336276636</v>
+        <v>1.005078573728765</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039499516277262</v>
+        <v>1.011118768320077</v>
       </c>
       <c r="D7">
-        <v>1.040378548670602</v>
+        <v>1.024318647064256</v>
       </c>
       <c r="E7">
-        <v>1.037965984311102</v>
+        <v>1.015331394567264</v>
       </c>
       <c r="F7">
-        <v>1.039243419678419</v>
+        <v>0.9925072818658305</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038089021657518</v>
+        <v>1.043788903988975</v>
       </c>
       <c r="J7">
-        <v>1.04401239312313</v>
+        <v>1.030236280436986</v>
       </c>
       <c r="K7">
-        <v>1.042850802805613</v>
+        <v>1.034129260439658</v>
       </c>
       <c r="L7">
-        <v>1.040444297754391</v>
+        <v>1.025245298121572</v>
       </c>
       <c r="M7">
-        <v>1.041718520987033</v>
+        <v>1.00269395439459</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037892480720221</v>
+        <v>1.003117486587163</v>
       </c>
       <c r="D8">
-        <v>1.039186977354732</v>
+        <v>1.018460259223919</v>
       </c>
       <c r="E8">
-        <v>1.036587475526745</v>
+        <v>1.008750927911828</v>
       </c>
       <c r="F8">
-        <v>1.036809057834881</v>
+        <v>0.9809695499804333</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037640137716134</v>
+        <v>1.041104434461747</v>
       </c>
       <c r="J8">
-        <v>1.042874588877741</v>
+        <v>1.0246356420658</v>
       </c>
       <c r="K8">
-        <v>1.041909618871735</v>
+        <v>1.029395848355592</v>
       </c>
       <c r="L8">
-        <v>1.03931735249519</v>
+        <v>1.019813652832136</v>
       </c>
       <c r="M8">
-        <v>1.039538316517614</v>
+        <v>0.9924136241483668</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035052638911062</v>
+        <v>0.9880786154201698</v>
       </c>
       <c r="D9">
-        <v>1.037080400641472</v>
+        <v>1.007475869795338</v>
       </c>
       <c r="E9">
-        <v>1.034153602216399</v>
+        <v>0.996432218701274</v>
       </c>
       <c r="F9">
-        <v>1.032509452394138</v>
+        <v>0.9591607937381066</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036836200442944</v>
+        <v>1.035970144146144</v>
       </c>
       <c r="J9">
-        <v>1.040857887343311</v>
+        <v>1.014059487772448</v>
       </c>
       <c r="K9">
-        <v>1.040239458036682</v>
+        <v>1.02044880958168</v>
       </c>
       <c r="L9">
-        <v>1.037322214968798</v>
+        <v>1.009583447106835</v>
       </c>
       <c r="M9">
-        <v>1.035683458989513</v>
+        <v>0.9729531362636035</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.033153732998444</v>
+        <v>0.9773107301653647</v>
       </c>
       <c r="D10">
-        <v>1.035671240021467</v>
+        <v>0.999635439936424</v>
       </c>
       <c r="E10">
-        <v>1.03252762947213</v>
+        <v>0.9876510034435246</v>
       </c>
       <c r="F10">
-        <v>1.029635632796225</v>
+        <v>0.9434195115659469</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036291450377111</v>
+        <v>1.032236091487987</v>
       </c>
       <c r="J10">
-        <v>1.039505321742256</v>
+        <v>1.006454402365529</v>
       </c>
       <c r="K10">
-        <v>1.039118013627882</v>
+        <v>1.014011279748952</v>
       </c>
       <c r="L10">
-        <v>1.035985680465977</v>
+        <v>1.00224686081758</v>
       </c>
       <c r="M10">
-        <v>1.033104125688684</v>
+        <v>0.9588914451615057</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032330077603943</v>
+        <v>0.972443247262427</v>
       </c>
       <c r="D11">
-        <v>1.035059890107805</v>
+        <v>0.9960986120042389</v>
       </c>
       <c r="E11">
-        <v>1.031822718662249</v>
+        <v>0.9836921362678808</v>
       </c>
       <c r="F11">
-        <v>1.028389316112926</v>
+        <v>0.9362623132751544</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03605346236248</v>
+        <v>1.030534998711629</v>
       </c>
       <c r="J11">
-        <v>1.038917679694671</v>
+        <v>1.003009117442745</v>
       </c>
       <c r="K11">
-        <v>1.038630482309412</v>
+        <v>1.01109447974755</v>
       </c>
       <c r="L11">
-        <v>1.035405377490515</v>
+        <v>0.9989282902762511</v>
       </c>
       <c r="M11">
-        <v>1.031984864960498</v>
+        <v>0.9524953870565008</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032023917101108</v>
+        <v>0.9706016083117593</v>
       </c>
       <c r="D12">
-        <v>1.03483262802729</v>
+        <v>0.9947616790087177</v>
       </c>
       <c r="E12">
-        <v>1.031560751360062</v>
+        <v>0.9821959862387921</v>
       </c>
       <c r="F12">
-        <v>1.027926074054699</v>
+        <v>0.9335469256675696</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035964744588052</v>
+        <v>1.029889455573679</v>
       </c>
       <c r="J12">
-        <v>1.038699102958051</v>
+        <v>1.001704462715529</v>
       </c>
       <c r="K12">
-        <v>1.038449097120726</v>
+        <v>1.009989929834213</v>
       </c>
       <c r="L12">
-        <v>1.035189586953487</v>
+        <v>0.9976724211646048</v>
       </c>
       <c r="M12">
-        <v>1.031568749739562</v>
+        <v>0.9500685037535938</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.03208959952994</v>
+        <v>0.9709982183439597</v>
       </c>
       <c r="D13">
-        <v>1.034881384688183</v>
+        <v>0.9950495383985803</v>
       </c>
       <c r="E13">
-        <v>1.031616950271464</v>
+        <v>0.9825181135744443</v>
       </c>
       <c r="F13">
-        <v>1.02802545505639</v>
+        <v>0.9341320596084055</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035983789290177</v>
+        <v>1.030028563909391</v>
       </c>
       <c r="J13">
-        <v>1.038746002064726</v>
+        <v>1.001985479370539</v>
       </c>
       <c r="K13">
-        <v>1.038488018229669</v>
+        <v>1.010227844985608</v>
       </c>
       <c r="L13">
-        <v>1.035235885682573</v>
+        <v>0.9979428927673757</v>
       </c>
       <c r="M13">
-        <v>1.031658024900671</v>
+        <v>0.9505914784393594</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032304774764128</v>
+        <v>0.9722917208944117</v>
       </c>
       <c r="D14">
-        <v>1.035041108233244</v>
+        <v>0.9959885857120641</v>
       </c>
       <c r="E14">
-        <v>1.031801067078779</v>
+        <v>0.9835690006390972</v>
       </c>
       <c r="F14">
-        <v>1.028351030674069</v>
+        <v>0.9360390545853408</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036046135429787</v>
+        <v>1.030481923451125</v>
       </c>
       <c r="J14">
-        <v>1.038899618223115</v>
+        <v>1.002901795542311</v>
       </c>
       <c r="K14">
-        <v>1.038615494975892</v>
+        <v>1.011003618766661</v>
       </c>
       <c r="L14">
-        <v>1.035387545097773</v>
+        <v>0.9988249650239266</v>
       </c>
       <c r="M14">
-        <v>1.031950476407016</v>
+        <v>0.9522958538251978</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032437322249959</v>
+        <v>0.9730841412097558</v>
       </c>
       <c r="D15">
-        <v>1.035139495301461</v>
+        <v>0.9965640292717977</v>
       </c>
       <c r="E15">
-        <v>1.031914489910701</v>
+        <v>0.9842130193363874</v>
       </c>
       <c r="F15">
-        <v>1.028551587780544</v>
+        <v>0.9372062961327681</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036084506695577</v>
+        <v>1.03075940719765</v>
       </c>
       <c r="J15">
-        <v>1.038994226292944</v>
+        <v>1.003462999624833</v>
       </c>
       <c r="K15">
-        <v>1.038693998508673</v>
+        <v>1.011478745393983</v>
       </c>
       <c r="L15">
-        <v>1.035480955535515</v>
+        <v>0.9993653027845965</v>
       </c>
       <c r="M15">
-        <v>1.032130615768713</v>
+        <v>0.9533390437776808</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033208365989241</v>
+        <v>0.9776292165727664</v>
       </c>
       <c r="D16">
-        <v>1.035711788300682</v>
+        <v>0.9998670233156314</v>
       </c>
       <c r="E16">
-        <v>1.032574393770988</v>
+        <v>0.9879102665690206</v>
       </c>
       <c r="F16">
-        <v>1.029718304792633</v>
+        <v>0.9438868621056501</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036307200300687</v>
+        <v>1.032347128249558</v>
       </c>
       <c r="J16">
-        <v>1.039544279715603</v>
+        <v>1.006679678293547</v>
       </c>
       <c r="K16">
-        <v>1.039150328369005</v>
+        <v>1.014201994306518</v>
       </c>
       <c r="L16">
-        <v>1.036024159780079</v>
+        <v>1.002463959483929</v>
       </c>
       <c r="M16">
-        <v>1.033178355865571</v>
+        <v>0.9593090516510726</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033691638300562</v>
+        <v>0.9804234607405364</v>
       </c>
       <c r="D17">
-        <v>1.036070456061115</v>
+        <v>1.001899667128924</v>
       </c>
       <c r="E17">
-        <v>1.032988102779286</v>
+        <v>0.990186121243683</v>
       </c>
       <c r="F17">
-        <v>1.030449627949475</v>
+        <v>0.947982354244838</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036446324588335</v>
+        <v>1.033319830563828</v>
       </c>
       <c r="J17">
-        <v>1.039888782855147</v>
+        <v>1.008655294228905</v>
       </c>
       <c r="K17">
-        <v>1.039436050856392</v>
+        <v>1.015874470083228</v>
       </c>
       <c r="L17">
-        <v>1.036364473330154</v>
+        <v>1.00436843955684</v>
       </c>
       <c r="M17">
-        <v>1.033834926227527</v>
+        <v>0.9629683529747388</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033973386548659</v>
+        <v>0.9820337358657018</v>
       </c>
       <c r="D18">
-        <v>1.036279547829997</v>
+        <v>1.003071724913992</v>
       </c>
       <c r="E18">
-        <v>1.033229330113582</v>
+        <v>0.9914986424902844</v>
       </c>
       <c r="F18">
-        <v>1.030876010739298</v>
+        <v>0.9503386946315155</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036527270196175</v>
+        <v>1.033879141236624</v>
       </c>
       <c r="J18">
-        <v>1.040089535691118</v>
+        <v>1.009793101489092</v>
       </c>
       <c r="K18">
-        <v>1.039602521125658</v>
+        <v>1.01683764620271</v>
       </c>
       <c r="L18">
-        <v>1.03656282077397</v>
+        <v>1.005465751919873</v>
       </c>
       <c r="M18">
-        <v>1.03421766263167</v>
+        <v>0.965073485797223</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034069432460876</v>
+        <v>0.9825795609549118</v>
       </c>
       <c r="D19">
-        <v>1.036350823634859</v>
+        <v>1.003469121455528</v>
       </c>
       <c r="E19">
-        <v>1.033311568582599</v>
+        <v>0.9919437034541508</v>
       </c>
       <c r="F19">
-        <v>1.031021365187221</v>
+        <v>0.9511367925735222</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03655483613783</v>
+        <v>1.0340685153257</v>
       </c>
       <c r="J19">
-        <v>1.040157955110677</v>
+        <v>1.010178656712044</v>
       </c>
       <c r="K19">
-        <v>1.03965925159046</v>
+        <v>1.017164017324436</v>
       </c>
       <c r="L19">
-        <v>1.036630426504745</v>
+        <v>1.005837664469478</v>
       </c>
       <c r="M19">
-        <v>1.034348127223342</v>
+        <v>0.9657864544736461</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033639801895292</v>
+        <v>0.9801257074139033</v>
       </c>
       <c r="D20">
-        <v>1.036031986123459</v>
+        <v>1.001682997945624</v>
       </c>
       <c r="E20">
-        <v>1.032943724241492</v>
+        <v>0.9899435040590916</v>
       </c>
       <c r="F20">
-        <v>1.03037118320093</v>
+        <v>0.9475463454439939</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036431418903939</v>
+        <v>1.033216308470417</v>
       </c>
       <c r="J20">
-        <v>1.039851840613081</v>
+        <v>1.008444846826174</v>
       </c>
       <c r="K20">
-        <v>1.039405414885035</v>
+        <v>1.015696318278159</v>
       </c>
       <c r="L20">
-        <v>1.036327976624191</v>
+        <v>1.004165520188625</v>
       </c>
       <c r="M20">
-        <v>1.033764506322249</v>
+        <v>0.9625788060948551</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032241417088069</v>
+        <v>0.9719117700609602</v>
       </c>
       <c r="D21">
-        <v>1.034994078610522</v>
+        <v>0.9957127164321034</v>
       </c>
       <c r="E21">
-        <v>1.031746852943334</v>
+        <v>0.9832602672134813</v>
       </c>
       <c r="F21">
-        <v>1.028255165289579</v>
+        <v>0.9354791119794705</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036027784850193</v>
+        <v>1.030348806993462</v>
       </c>
       <c r="J21">
-        <v>1.038854390415821</v>
+        <v>1.002632669123983</v>
       </c>
       <c r="K21">
-        <v>1.038577964402045</v>
+        <v>1.01077577050135</v>
       </c>
       <c r="L21">
-        <v>1.035342891838983</v>
+        <v>0.9985658738539908</v>
       </c>
       <c r="M21">
-        <v>1.031864367096296</v>
+        <v>0.9517954118460554</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031360931828848</v>
+        <v>0.9665510098974838</v>
       </c>
       <c r="D22">
-        <v>1.03434046485372</v>
+        <v>0.9918236239216216</v>
       </c>
       <c r="E22">
-        <v>1.030993566619421</v>
+        <v>0.9789085711690076</v>
       </c>
       <c r="F22">
-        <v>1.026922971792768</v>
+        <v>0.9275593863783224</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03577216087322</v>
+        <v>1.028466122196749</v>
       </c>
       <c r="J22">
-        <v>1.038225514343719</v>
+        <v>0.9988328978766486</v>
       </c>
       <c r="K22">
-        <v>1.038056008862621</v>
+        <v>1.007558815394491</v>
       </c>
       <c r="L22">
-        <v>1.034722138562486</v>
+        <v>0.9949097611752169</v>
       </c>
       <c r="M22">
-        <v>1.030667515879548</v>
+        <v>0.944716778333861</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031827815462166</v>
+        <v>0.9694125167179749</v>
       </c>
       <c r="D23">
-        <v>1.034687057510168</v>
+        <v>0.9938988310730208</v>
       </c>
       <c r="E23">
-        <v>1.031392971807026</v>
+        <v>0.9812304645241974</v>
       </c>
       <c r="F23">
-        <v>1.027629365163806</v>
+        <v>0.9317914236945481</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035907847294798</v>
+        <v>1.029472111518005</v>
       </c>
       <c r="J23">
-        <v>1.038559059685092</v>
+        <v>1.000861773947658</v>
       </c>
       <c r="K23">
-        <v>1.03833286999086</v>
+        <v>1.009276490920036</v>
       </c>
       <c r="L23">
-        <v>1.03505134471237</v>
+        <v>0.996861474795315</v>
       </c>
       <c r="M23">
-        <v>1.031302198139536</v>
+        <v>0.9484994608909649</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.0336632249564</v>
+        <v>0.9802603095616826</v>
       </c>
       <c r="D24">
-        <v>1.036049369381574</v>
+        <v>1.001780943154541</v>
       </c>
       <c r="E24">
-        <v>1.032963777246038</v>
+        <v>0.9900531783526553</v>
       </c>
       <c r="F24">
-        <v>1.03040662957843</v>
+        <v>0.9477434590438484</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036438154768965</v>
+        <v>1.033263110449668</v>
       </c>
       <c r="J24">
-        <v>1.039868533808963</v>
+        <v>1.008539983718182</v>
       </c>
       <c r="K24">
-        <v>1.039419258538845</v>
+        <v>1.015776855452678</v>
       </c>
       <c r="L24">
-        <v>1.036344468383116</v>
+        <v>1.004257252414446</v>
       </c>
       <c r="M24">
-        <v>1.03379632675567</v>
+        <v>0.9627549156679295</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035787786781522</v>
+        <v>0.9920884608788327</v>
       </c>
       <c r="D25">
-        <v>1.037625831710977</v>
+        <v>1.010400963883513</v>
       </c>
       <c r="E25">
-        <v>1.034783400594856</v>
+        <v>0.999710527591975</v>
       </c>
       <c r="F25">
-        <v>1.033622256976015</v>
+        <v>0.96499385512018</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03704558066865</v>
+        <v>1.037349151431161</v>
       </c>
       <c r="J25">
-        <v>1.04138066548835</v>
+        <v>1.016885045189103</v>
       </c>
       <c r="K25">
-        <v>1.040672633958485</v>
+        <v>1.022839935751635</v>
       </c>
       <c r="L25">
-        <v>1.037839128192535</v>
+        <v>1.012313338909335</v>
       </c>
       <c r="M25">
-        <v>1.03668164605183</v>
+        <v>0.9781610448467707</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_25/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000997504286905</v>
+        <v>1.01272484001552</v>
       </c>
       <c r="D2">
-        <v>1.016909612665745</v>
+        <v>1.032054897607264</v>
       </c>
       <c r="E2">
-        <v>1.007010503651446</v>
+        <v>1.01741837281391</v>
       </c>
       <c r="F2">
-        <v>0.9779057652731893</v>
+        <v>1.035482439460674</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040387237289237</v>
+        <v>1.048021605154681</v>
       </c>
       <c r="J2">
-        <v>1.023148421052094</v>
+        <v>1.034531502162111</v>
       </c>
       <c r="K2">
-        <v>1.028138290952795</v>
+        <v>1.043085014128655</v>
       </c>
       <c r="L2">
-        <v>1.018373027446548</v>
+        <v>1.0286402605445</v>
       </c>
       <c r="M2">
-        <v>0.9896817379734942</v>
+        <v>1.04646862656932</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.045349175404858</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.041535119253044</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007198303573917</v>
+        <v>1.016149200594825</v>
       </c>
       <c r="D3">
-        <v>1.021447026295933</v>
+        <v>1.034321705158656</v>
       </c>
       <c r="E3">
-        <v>1.012104771415704</v>
+        <v>1.02009064416762</v>
       </c>
       <c r="F3">
-        <v>0.9868588068491402</v>
+        <v>1.037933566673713</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042478167761292</v>
+        <v>1.048771704193417</v>
       </c>
       <c r="J3">
-        <v>1.027494640698365</v>
+        <v>1.036209098245471</v>
       </c>
       <c r="K3">
-        <v>1.031812650043251</v>
+        <v>1.044533488443726</v>
       </c>
       <c r="L3">
-        <v>1.022585077259709</v>
+        <v>1.030472756360204</v>
       </c>
       <c r="M3">
-        <v>0.9976626397014077</v>
+        <v>1.048103039602829</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.046642693972186</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.042556653298749</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011097111957445</v>
+        <v>1.018329729664118</v>
       </c>
       <c r="D4">
-        <v>1.024302778731231</v>
+        <v>1.035769508077908</v>
       </c>
       <c r="E4">
-        <v>1.015313558544824</v>
+        <v>1.021797859293008</v>
       </c>
       <c r="F4">
-        <v>0.9924761033079104</v>
+        <v>1.039501351773467</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043781689114033</v>
+        <v>1.04924221845064</v>
       </c>
       <c r="J4">
-        <v>1.03022115002219</v>
+        <v>1.037275903250785</v>
       </c>
       <c r="K4">
-        <v>1.034116478573567</v>
+        <v>1.045454574297757</v>
       </c>
       <c r="L4">
-        <v>1.025230609953915</v>
+        <v>1.031640133339743</v>
       </c>
       <c r="M4">
-        <v>1.002666191434931</v>
+        <v>1.049145306212076</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.047467570698585</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.043208826055415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012710405272037</v>
+        <v>1.019241215404206</v>
       </c>
       <c r="D5">
-        <v>1.025485060072541</v>
+        <v>1.036377658467697</v>
       </c>
       <c r="E5">
-        <v>1.016642634291202</v>
+        <v>1.022513179043226</v>
       </c>
       <c r="F5">
-        <v>0.9947980906098151</v>
+        <v>1.040159028407588</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044318357319113</v>
+        <v>1.049438603958518</v>
       </c>
       <c r="J5">
-        <v>1.031347844470437</v>
+        <v>1.037722937613422</v>
       </c>
       <c r="K5">
-        <v>1.035068192341704</v>
+        <v>1.045841895061626</v>
       </c>
       <c r="L5">
-        <v>1.026324591870815</v>
+        <v>1.032129291221728</v>
       </c>
       <c r="M5">
-        <v>1.004733518475162</v>
+        <v>1.049582703564589</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.047813737991236</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.043489828800413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012979812351186</v>
+        <v>1.019397444707171</v>
       </c>
       <c r="D6">
-        <v>1.025682524396758</v>
+        <v>1.036484303038979</v>
       </c>
       <c r="E6">
-        <v>1.016864654363061</v>
+        <v>1.022636308128576</v>
       </c>
       <c r="F6">
-        <v>0.9951857158099124</v>
+        <v>1.040272673152087</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04440781570718</v>
+        <v>1.049473919542225</v>
       </c>
       <c r="J6">
-        <v>1.031535903933242</v>
+        <v>1.037801318560898</v>
       </c>
       <c r="K6">
-        <v>1.035227026204145</v>
+        <v>1.045911447273681</v>
       </c>
       <c r="L6">
-        <v>1.026507234884412</v>
+        <v>1.032214456990426</v>
       </c>
       <c r="M6">
-        <v>1.005078573728765</v>
+        <v>1.0496593648163</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.047874409621982</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.043547710977231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011118768320077</v>
+        <v>1.018351802750086</v>
       </c>
       <c r="D7">
-        <v>1.024318647064256</v>
+        <v>1.035790517408008</v>
       </c>
       <c r="E7">
-        <v>1.015331394567264</v>
+        <v>1.021816382679513</v>
       </c>
       <c r="F7">
-        <v>0.9925072818658305</v>
+        <v>1.039519467766315</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043788903988975</v>
+        <v>1.049251704533336</v>
       </c>
       <c r="J7">
-        <v>1.030236280436986</v>
+        <v>1.037291515306085</v>
       </c>
       <c r="K7">
-        <v>1.034129260439658</v>
+        <v>1.045472488064962</v>
       </c>
       <c r="L7">
-        <v>1.025245298121572</v>
+        <v>1.031655529253767</v>
       </c>
       <c r="M7">
-        <v>1.00269395439459</v>
+        <v>1.049160374089002</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.047479495798977</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.04324151087187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003117486587163</v>
+        <v>1.013901939579067</v>
       </c>
       <c r="D8">
-        <v>1.018460259223919</v>
+        <v>1.032840963704346</v>
       </c>
       <c r="E8">
-        <v>1.008750927911828</v>
+        <v>1.01833734474351</v>
       </c>
       <c r="F8">
-        <v>0.9809695499804333</v>
+        <v>1.036326258223226</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041104434461747</v>
+        <v>1.048286768502722</v>
       </c>
       <c r="J8">
-        <v>1.0246356420658</v>
+        <v>1.0351144205679</v>
       </c>
       <c r="K8">
-        <v>1.029395848355592</v>
+        <v>1.043593725635724</v>
       </c>
       <c r="L8">
-        <v>1.019813652832136</v>
+        <v>1.029274524378476</v>
       </c>
       <c r="M8">
-        <v>0.9924136241483668</v>
+        <v>1.047035661735969</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.045797942590835</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.041917627359903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9880786154201698</v>
+        <v>1.005764169309975</v>
       </c>
       <c r="D9">
-        <v>1.007475869795338</v>
+        <v>1.027472915681651</v>
       </c>
       <c r="E9">
-        <v>0.996432218701274</v>
+        <v>1.012018454909997</v>
       </c>
       <c r="F9">
-        <v>0.9591607937381066</v>
+        <v>1.030539805056867</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035970144146144</v>
+        <v>1.046459548762783</v>
       </c>
       <c r="J9">
-        <v>1.014059487772448</v>
+        <v>1.031115009107888</v>
       </c>
       <c r="K9">
-        <v>1.02044880958168</v>
+        <v>1.040135452096233</v>
       </c>
       <c r="L9">
-        <v>1.009583447106835</v>
+        <v>1.024919504714563</v>
       </c>
       <c r="M9">
-        <v>0.9729531362636035</v>
+        <v>1.043156092207077</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.042727539339323</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.039469256940313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9773107301653647</v>
+        <v>1.000189389094389</v>
       </c>
       <c r="D10">
-        <v>0.999635439936424</v>
+        <v>1.023847984493292</v>
       </c>
       <c r="E10">
-        <v>0.9876510034435246</v>
+        <v>1.007729316929319</v>
       </c>
       <c r="F10">
-        <v>0.9434195115659469</v>
+        <v>1.026696965346197</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032236091487987</v>
+        <v>1.045194427123929</v>
       </c>
       <c r="J10">
-        <v>1.006454402365529</v>
+        <v>1.028395494923142</v>
       </c>
       <c r="K10">
-        <v>1.014011279748952</v>
+        <v>1.037799604621715</v>
       </c>
       <c r="L10">
-        <v>1.00224686081758</v>
+        <v>1.021960404572648</v>
       </c>
       <c r="M10">
-        <v>0.9588914451615057</v>
+        <v>1.040600366666142</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.040756153935647</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.037834432925938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.972443247262427</v>
+        <v>0.9981490497015535</v>
       </c>
       <c r="D11">
-        <v>0.9960986120042389</v>
+        <v>1.02272761348338</v>
       </c>
       <c r="E11">
-        <v>0.9836921362678808</v>
+        <v>1.006224193326716</v>
       </c>
       <c r="F11">
-        <v>0.9362623132751544</v>
+        <v>1.025941044757356</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030534998711629</v>
+        <v>1.044891767383581</v>
       </c>
       <c r="J11">
-        <v>1.003009117442745</v>
+        <v>1.027599033615677</v>
       </c>
       <c r="K11">
-        <v>1.01109447974755</v>
+        <v>1.037233281453057</v>
       </c>
       <c r="L11">
-        <v>0.9989282902762511</v>
+        <v>1.021029677363616</v>
       </c>
       <c r="M11">
-        <v>0.9524953870565008</v>
+        <v>1.040389789343388</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.041024435945502</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.037466756826776</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9706016083117593</v>
+        <v>0.9975332953832411</v>
       </c>
       <c r="D12">
-        <v>0.9947616790087177</v>
+        <v>1.022471535353106</v>
       </c>
       <c r="E12">
-        <v>0.9821959862387921</v>
+        <v>1.005796529319045</v>
       </c>
       <c r="F12">
-        <v>0.9335469256675696</v>
+        <v>1.025988472242293</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029889455573679</v>
+        <v>1.044869349477963</v>
       </c>
       <c r="J12">
-        <v>1.001704462715529</v>
+        <v>1.027442418712089</v>
       </c>
       <c r="K12">
-        <v>1.009989929834213</v>
+        <v>1.037180518255139</v>
       </c>
       <c r="L12">
-        <v>0.9976724211646048</v>
+        <v>1.020813513231406</v>
       </c>
       <c r="M12">
-        <v>0.9500685037535938</v>
+        <v>1.040634155049394</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.041543182142242</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.037429451775401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9709982183439597</v>
+        <v>0.9979857441695067</v>
       </c>
       <c r="D13">
-        <v>0.9950495383985803</v>
+        <v>1.022880375313625</v>
       </c>
       <c r="E13">
-        <v>0.9825181135744443</v>
+        <v>1.006179054701558</v>
       </c>
       <c r="F13">
-        <v>0.9341320596084055</v>
+        <v>1.026681058457825</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030028563909391</v>
+        <v>1.045073996117728</v>
       </c>
       <c r="J13">
-        <v>1.001985479370539</v>
+        <v>1.027782662375401</v>
       </c>
       <c r="K13">
-        <v>1.010227844985608</v>
+        <v>1.03753936242884</v>
       </c>
       <c r="L13">
-        <v>0.9979428927673757</v>
+        <v>1.021145184011884</v>
       </c>
       <c r="M13">
-        <v>0.9505914784393594</v>
+        <v>1.041271961817225</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.042323415536039</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.037680680749044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9722917208944117</v>
+        <v>0.9987869501750404</v>
       </c>
       <c r="D14">
-        <v>0.9959885857120641</v>
+        <v>1.023468484175339</v>
       </c>
       <c r="E14">
-        <v>0.9835690006390972</v>
+        <v>1.006814357045632</v>
       </c>
       <c r="F14">
-        <v>0.9360390545853408</v>
+        <v>1.027457547136237</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030481923451125</v>
+        <v>1.045320104020171</v>
       </c>
       <c r="J14">
-        <v>1.002901795542311</v>
+        <v>1.028246006976875</v>
       </c>
       <c r="K14">
-        <v>1.011003618766661</v>
+        <v>1.037977394130723</v>
       </c>
       <c r="L14">
-        <v>0.9988249650239266</v>
+        <v>1.021625700480995</v>
       </c>
       <c r="M14">
-        <v>0.9522958538251978</v>
+        <v>1.041895903618471</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.042989527146429</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.037991800974416</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9730841412097558</v>
+        <v>0.9992197643841626</v>
       </c>
       <c r="D15">
-        <v>0.9965640292717977</v>
+        <v>1.02376504854966</v>
       </c>
       <c r="E15">
-        <v>0.9842130193363874</v>
+        <v>1.007150633168242</v>
       </c>
       <c r="F15">
-        <v>0.9372062961327681</v>
+        <v>1.027803602712843</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03075940719765</v>
+        <v>1.045434071801484</v>
       </c>
       <c r="J15">
-        <v>1.003462999624833</v>
+        <v>1.028473752530622</v>
       </c>
       <c r="K15">
-        <v>1.011478745393983</v>
+        <v>1.038182769925739</v>
       </c>
       <c r="L15">
-        <v>0.9993653027845965</v>
+        <v>1.021867761889817</v>
       </c>
       <c r="M15">
-        <v>0.9533390437776808</v>
+        <v>1.042150439568644</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.0432281627382</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.03814285669223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9776292165727664</v>
+        <v>1.00149035630638</v>
       </c>
       <c r="D16">
-        <v>0.9998670233156314</v>
+        <v>1.025224888139963</v>
       </c>
       <c r="E16">
-        <v>0.9879102665690206</v>
+        <v>1.008885433718253</v>
       </c>
       <c r="F16">
-        <v>0.9438868621056501</v>
+        <v>1.029329662785482</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032347128249558</v>
+        <v>1.045944342297546</v>
       </c>
       <c r="J16">
-        <v>1.006679678293547</v>
+        <v>1.029568371704542</v>
       </c>
       <c r="K16">
-        <v>1.014201994306518</v>
+        <v>1.039117775275892</v>
       </c>
       <c r="L16">
-        <v>1.002463959483929</v>
+        <v>1.02305987898702</v>
       </c>
       <c r="M16">
-        <v>0.9593090516510726</v>
+        <v>1.043153627574714</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.043982455613244</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.038807089937033</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9804234607405364</v>
+        <v>1.002815236528024</v>
       </c>
       <c r="D17">
-        <v>1.001899667128924</v>
+        <v>1.026038815569046</v>
       </c>
       <c r="E17">
-        <v>0.990186121243683</v>
+        <v>1.009887069827526</v>
       </c>
       <c r="F17">
-        <v>0.947982354244838</v>
+        <v>1.030089991530785</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033319830563828</v>
+        <v>1.046205258521485</v>
       </c>
       <c r="J17">
-        <v>1.008655294228905</v>
+        <v>1.030165657575012</v>
       </c>
       <c r="K17">
-        <v>1.015874470083228</v>
+        <v>1.039605190406399</v>
       </c>
       <c r="L17">
-        <v>1.00436843955684</v>
+        <v>1.023723935614137</v>
       </c>
       <c r="M17">
-        <v>0.9629683529747388</v>
+        <v>1.043590231046238</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.044198841934432</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.039154287425605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9820337358657018</v>
+        <v>1.00343749653763</v>
       </c>
       <c r="D18">
-        <v>1.003071724913992</v>
+        <v>1.026347476409912</v>
       </c>
       <c r="E18">
-        <v>0.9914986424902844</v>
+        <v>1.010336043010452</v>
       </c>
       <c r="F18">
-        <v>0.9503386946315155</v>
+        <v>1.030210149263986</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033879141236624</v>
+        <v>1.046263749645774</v>
       </c>
       <c r="J18">
-        <v>1.009793101489092</v>
+        <v>1.030371265460874</v>
       </c>
       <c r="K18">
-        <v>1.01683764620271</v>
+        <v>1.039726404753146</v>
       </c>
       <c r="L18">
-        <v>1.005465751919873</v>
+        <v>1.02397871650392</v>
       </c>
       <c r="M18">
-        <v>0.965073485797223</v>
+        <v>1.04352702427452</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.043911839551709</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.039228398412846</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9825795609549118</v>
+        <v>1.003433187340632</v>
       </c>
       <c r="D19">
-        <v>1.003469121455528</v>
+        <v>1.026211789301488</v>
       </c>
       <c r="E19">
-        <v>0.9919437034541508</v>
+        <v>1.010293432427897</v>
       </c>
       <c r="F19">
-        <v>0.9511367925735222</v>
+        <v>1.029752383275062</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0340685153257</v>
+        <v>1.046148687742699</v>
       </c>
       <c r="J19">
-        <v>1.010178656712044</v>
+        <v>1.030233244771023</v>
       </c>
       <c r="K19">
-        <v>1.017164017324436</v>
+        <v>1.039530705735925</v>
       </c>
       <c r="L19">
-        <v>1.005837664469478</v>
+        <v>1.023873218835909</v>
       </c>
       <c r="M19">
-        <v>0.9657864544736461</v>
+        <v>1.043014681606147</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.043182205238109</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.039096404928221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9801257074139033</v>
+        <v>1.001659019385901</v>
       </c>
       <c r="D20">
-        <v>1.001682997945624</v>
+        <v>1.024818500205438</v>
       </c>
       <c r="E20">
-        <v>0.9899435040590916</v>
+        <v>1.008861487210344</v>
       </c>
       <c r="F20">
-        <v>0.9475463454439939</v>
+        <v>1.027716937440089</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033216308470417</v>
+        <v>1.045543172931088</v>
       </c>
       <c r="J20">
-        <v>1.008444846826174</v>
+        <v>1.029126138075783</v>
       </c>
       <c r="K20">
-        <v>1.015696318278159</v>
+        <v>1.038438546609139</v>
       </c>
       <c r="L20">
-        <v>1.004165520188625</v>
+        <v>1.022750287398196</v>
       </c>
       <c r="M20">
-        <v>0.9625788060948551</v>
+        <v>1.041289318870785</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.041290865250027</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.038328119316681</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9719117700609602</v>
+        <v>0.9973999321084989</v>
       </c>
       <c r="D21">
-        <v>0.9957127164321034</v>
+        <v>1.0220176765895</v>
       </c>
       <c r="E21">
-        <v>0.9832602672134813</v>
+        <v>1.005585344545251</v>
       </c>
       <c r="F21">
-        <v>0.9354791119794705</v>
+        <v>1.024669583658472</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030348806993462</v>
+        <v>1.044530918555763</v>
       </c>
       <c r="J21">
-        <v>1.002632669123983</v>
+        <v>1.027006764761001</v>
       </c>
       <c r="K21">
-        <v>1.01077577050135</v>
+        <v>1.036593588188729</v>
       </c>
       <c r="L21">
-        <v>0.9985658738539908</v>
+        <v>1.020461667890142</v>
       </c>
       <c r="M21">
-        <v>0.9517954118460554</v>
+        <v>1.039198185593681</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.039595124488834</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.037026888007834</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9665510098974838</v>
+        <v>0.9946894979469765</v>
       </c>
       <c r="D22">
-        <v>0.9918236239216216</v>
+        <v>1.020247465735609</v>
       </c>
       <c r="E22">
-        <v>0.9789085711690076</v>
+        <v>1.003509813239168</v>
       </c>
       <c r="F22">
-        <v>0.9275593863783224</v>
+        <v>1.022777769976863</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028466122196749</v>
+        <v>1.043885286752566</v>
       </c>
       <c r="J22">
-        <v>0.9988328978766486</v>
+        <v>1.025664556818912</v>
       </c>
       <c r="K22">
-        <v>1.007558815394491</v>
+        <v>1.035428211722917</v>
       </c>
       <c r="L22">
-        <v>0.9949097611752169</v>
+        <v>1.019012059229123</v>
       </c>
       <c r="M22">
-        <v>0.944716778333861</v>
+        <v>1.037911108318045</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.038576487117268</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.036189453797425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9694125167179749</v>
+        <v>0.9961215234602244</v>
       </c>
       <c r="D23">
-        <v>0.9938988310730208</v>
+        <v>1.021176512464286</v>
       </c>
       <c r="E23">
-        <v>0.9812304645241974</v>
+        <v>1.004604303947007</v>
       </c>
       <c r="F23">
-        <v>0.9317914236945481</v>
+        <v>1.023774376289992</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029472111518005</v>
+        <v>1.044222858739237</v>
       </c>
       <c r="J23">
-        <v>1.000861773947658</v>
+        <v>1.02636937594931</v>
       </c>
       <c r="K23">
-        <v>1.009276490920036</v>
+        <v>1.036036439171615</v>
       </c>
       <c r="L23">
-        <v>0.996861474795315</v>
+        <v>1.019774386411325</v>
       </c>
       <c r="M23">
-        <v>0.9484994608909649</v>
+        <v>1.038586867533895</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.039111306460817</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.036609886857321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9802603095616826</v>
+        <v>1.001673809675937</v>
       </c>
       <c r="D24">
-        <v>1.001780943154541</v>
+        <v>1.024800266041068</v>
       </c>
       <c r="E24">
-        <v>0.9900531783526553</v>
+        <v>1.008865495152097</v>
       </c>
       <c r="F24">
-        <v>0.9477434590438484</v>
+        <v>1.027660623731747</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033263110449668</v>
+        <v>1.045524168563993</v>
       </c>
       <c r="J24">
-        <v>1.008539983718182</v>
+        <v>1.029107579563642</v>
       </c>
       <c r="K24">
-        <v>1.015776855452678</v>
+        <v>1.038405422475932</v>
       </c>
       <c r="L24">
-        <v>1.004257252414446</v>
+        <v>1.022738691158255</v>
       </c>
       <c r="M24">
-        <v>0.9627549156679295</v>
+        <v>1.041218797219837</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.041194303347351</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.038277384018355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9920884608788327</v>
+        <v>1.007918741551092</v>
       </c>
       <c r="D25">
-        <v>1.010400963883513</v>
+        <v>1.028899508824442</v>
       </c>
       <c r="E25">
-        <v>0.999710527591975</v>
+        <v>1.013688050666807</v>
       </c>
       <c r="F25">
-        <v>0.96499385512018</v>
+        <v>1.032068413764865</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037349151431161</v>
+        <v>1.046956945941622</v>
       </c>
       <c r="J25">
-        <v>1.016885045189103</v>
+        <v>1.032182516002955</v>
       </c>
       <c r="K25">
-        <v>1.022839935751635</v>
+        <v>1.041065170281029</v>
       </c>
       <c r="L25">
-        <v>1.012313338909335</v>
+        <v>1.026077529427272</v>
       </c>
       <c r="M25">
-        <v>0.9781610448467707</v>
+        <v>1.044188500229679</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.04354461809448</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.040155097937273</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_25/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01272484001552</v>
+        <v>1.011834827593233</v>
       </c>
       <c r="D2">
-        <v>1.032054897607264</v>
+        <v>1.030719913820283</v>
       </c>
       <c r="E2">
-        <v>1.01741837281391</v>
+        <v>1.016660421499393</v>
       </c>
       <c r="F2">
-        <v>1.035482439460674</v>
+        <v>1.034532420030788</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048021605154681</v>
+        <v>1.047415790143721</v>
       </c>
       <c r="J2">
-        <v>1.034531502162111</v>
+        <v>1.033667232500869</v>
       </c>
       <c r="K2">
-        <v>1.043085014128655</v>
+        <v>1.041767239185141</v>
       </c>
       <c r="L2">
-        <v>1.0286402605445</v>
+        <v>1.027892428921215</v>
       </c>
       <c r="M2">
-        <v>1.04646862656932</v>
+        <v>1.045530746710917</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045349175404858</v>
+        <v>1.044606910953918</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.041535119253044</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.040612086312995</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023108403332917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016149200594825</v>
+        <v>1.015166151355299</v>
       </c>
       <c r="D3">
-        <v>1.034321705158656</v>
+        <v>1.032852701540241</v>
       </c>
       <c r="E3">
-        <v>1.02009064416762</v>
+        <v>1.01924974138326</v>
       </c>
       <c r="F3">
-        <v>1.037933566673713</v>
+        <v>1.036888325490114</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048771704193417</v>
+        <v>1.048099628173108</v>
       </c>
       <c r="J3">
-        <v>1.036209098245471</v>
+        <v>1.03525174015782</v>
       </c>
       <c r="K3">
-        <v>1.044533488443726</v>
+        <v>1.043081797970348</v>
       </c>
       <c r="L3">
-        <v>1.030472756360204</v>
+        <v>1.029642103145278</v>
       </c>
       <c r="M3">
-        <v>1.048103039602829</v>
+        <v>1.047070005172403</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.046642693972186</v>
+        <v>1.045825122919743</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042556653298749</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.04153865615827</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023365074757373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018329729664118</v>
+        <v>1.017288035611519</v>
       </c>
       <c r="D4">
-        <v>1.035769508077908</v>
+        <v>1.03421555654572</v>
       </c>
       <c r="E4">
-        <v>1.021797859293008</v>
+        <v>1.020904634277741</v>
       </c>
       <c r="F4">
-        <v>1.039501351773467</v>
+        <v>1.038395857460642</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.04924221845064</v>
+        <v>1.048528143031245</v>
       </c>
       <c r="J4">
-        <v>1.037275903250785</v>
+        <v>1.036259616807787</v>
       </c>
       <c r="K4">
-        <v>1.045454574297757</v>
+        <v>1.043917849443853</v>
       </c>
       <c r="L4">
-        <v>1.031640133339743</v>
+        <v>1.030757139413234</v>
       </c>
       <c r="M4">
-        <v>1.049145306212076</v>
+        <v>1.048051952710662</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.047467570698585</v>
+        <v>1.046602262461946</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.043208826055415</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042130786009865</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023526056941598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019241215404206</v>
+        <v>1.018175168946621</v>
       </c>
       <c r="D5">
-        <v>1.036377658467697</v>
+        <v>1.034788355588001</v>
       </c>
       <c r="E5">
-        <v>1.022513179043226</v>
+        <v>1.021598216050489</v>
       </c>
       <c r="F5">
-        <v>1.040159028407588</v>
+        <v>1.039028477868223</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049438603958518</v>
+        <v>1.048707036318628</v>
       </c>
       <c r="J5">
-        <v>1.037722937613422</v>
+        <v>1.036682126455093</v>
       </c>
       <c r="K5">
-        <v>1.045841895061626</v>
+        <v>1.044269748572551</v>
       </c>
       <c r="L5">
-        <v>1.032129291221728</v>
+        <v>1.031224529401819</v>
       </c>
       <c r="M5">
-        <v>1.049582703564589</v>
+        <v>1.048464242147405</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.047813737991236</v>
+        <v>1.04692855910371</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.043489828800413</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04238745465688</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023593742223566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019397444707171</v>
+        <v>1.018327261138151</v>
       </c>
       <c r="D6">
-        <v>1.036484303038979</v>
+        <v>1.034889025880357</v>
       </c>
       <c r="E6">
-        <v>1.022636308128576</v>
+        <v>1.021717645712361</v>
       </c>
       <c r="F6">
-        <v>1.040272673152087</v>
+        <v>1.039137883231932</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049473919542225</v>
+        <v>1.048739377802137</v>
       </c>
       <c r="J6">
-        <v>1.037801318560898</v>
+        <v>1.03675633970987</v>
       </c>
       <c r="K6">
-        <v>1.045911447273681</v>
+        <v>1.044333313237954</v>
       </c>
       <c r="L6">
-        <v>1.032214456990426</v>
+        <v>1.031305990111851</v>
       </c>
       <c r="M6">
-        <v>1.0496593648163</v>
+        <v>1.048536654403548</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.047874409621982</v>
+        <v>1.046985868041928</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043547710977231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042441972480188</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023606514532867</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018351802750086</v>
+        <v>1.017309587009084</v>
       </c>
       <c r="D7">
-        <v>1.035790517408008</v>
+        <v>1.034235915740883</v>
       </c>
       <c r="E7">
-        <v>1.021816382679513</v>
+        <v>1.020922674507272</v>
       </c>
       <c r="F7">
-        <v>1.039519467766315</v>
+        <v>1.038413494663323</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049251704533336</v>
+        <v>1.048537256292383</v>
       </c>
       <c r="J7">
-        <v>1.037291515306085</v>
+        <v>1.036274709174843</v>
       </c>
       <c r="K7">
-        <v>1.045472488064962</v>
+        <v>1.043935113697934</v>
       </c>
       <c r="L7">
-        <v>1.031655529253767</v>
+        <v>1.030772053831109</v>
       </c>
       <c r="M7">
-        <v>1.049160374089002</v>
+        <v>1.048066542502095</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.047479495798977</v>
+        <v>1.04661380920688</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04324151087187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042165011656179</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023530939704709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013901939579067</v>
+        <v>1.012979863216535</v>
       </c>
       <c r="D8">
-        <v>1.032840963704346</v>
+        <v>1.031460050316652</v>
       </c>
       <c r="E8">
-        <v>1.01833734474351</v>
+        <v>1.01755078826141</v>
       </c>
       <c r="F8">
-        <v>1.036326258223226</v>
+        <v>1.035343556976029</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048286768502722</v>
+        <v>1.047658170572938</v>
       </c>
       <c r="J8">
-        <v>1.0351144205679</v>
+        <v>1.034218132097382</v>
       </c>
       <c r="K8">
-        <v>1.043593725635724</v>
+        <v>1.04223009239248</v>
       </c>
       <c r="L8">
-        <v>1.029274524378476</v>
+        <v>1.028498157258678</v>
       </c>
       <c r="M8">
-        <v>1.047035661735969</v>
+        <v>1.046065148868493</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.045797942590835</v>
+        <v>1.045029851916919</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.041917627359903</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040964438722479</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023201171994022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005764169309975</v>
+        <v>1.005066818921577</v>
       </c>
       <c r="D9">
-        <v>1.027472915681651</v>
+        <v>1.026412610092749</v>
       </c>
       <c r="E9">
-        <v>1.012018454909997</v>
+        <v>1.01143197217086</v>
       </c>
       <c r="F9">
-        <v>1.030539805056867</v>
+        <v>1.029785563119919</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046459548762783</v>
+        <v>1.045989488144905</v>
       </c>
       <c r="J9">
-        <v>1.031115009107888</v>
+        <v>1.030441914788669</v>
       </c>
       <c r="K9">
-        <v>1.040135452096233</v>
+        <v>1.03909121804748</v>
       </c>
       <c r="L9">
-        <v>1.024919504714563</v>
+        <v>1.024342257059653</v>
       </c>
       <c r="M9">
-        <v>1.043156092207077</v>
+        <v>1.04241319185761</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.042727539339323</v>
+        <v>1.042139585094364</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.039469256940313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038741620703612</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022573896346199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.000189389094389</v>
+        <v>0.999646250818564</v>
       </c>
       <c r="D10">
-        <v>1.023847984493292</v>
+        <v>1.023005792596397</v>
       </c>
       <c r="E10">
-        <v>1.007729316929319</v>
+        <v>1.007279517405061</v>
       </c>
       <c r="F10">
-        <v>1.026696965346197</v>
+        <v>1.026098720502786</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045194427123929</v>
+        <v>1.044831638553976</v>
       </c>
       <c r="J10">
-        <v>1.028395494923142</v>
+        <v>1.027873910963787</v>
       </c>
       <c r="K10">
-        <v>1.037799604621715</v>
+        <v>1.036971733178424</v>
       </c>
       <c r="L10">
-        <v>1.021960404572648</v>
+        <v>1.02151857013982</v>
       </c>
       <c r="M10">
-        <v>1.040600366666142</v>
+        <v>1.040012218422373</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.040756153935647</v>
+        <v>1.040290702924557</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.037834432925938</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037261457776151</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022144986576066</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9981490497015535</v>
+        <v>0.997633159122691</v>
       </c>
       <c r="D11">
-        <v>1.02272761348338</v>
+        <v>1.021933396601216</v>
       </c>
       <c r="E11">
-        <v>1.006224193326716</v>
+        <v>1.00579678695825</v>
       </c>
       <c r="F11">
-        <v>1.025941044757356</v>
+        <v>1.025376445016624</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044891767383581</v>
+        <v>1.04454817984984</v>
       </c>
       <c r="J11">
-        <v>1.027599033615677</v>
+        <v>1.027104734008364</v>
       </c>
       <c r="K11">
-        <v>1.037233281453057</v>
+        <v>1.036453205114851</v>
       </c>
       <c r="L11">
-        <v>1.021029677363616</v>
+        <v>1.020610206130179</v>
       </c>
       <c r="M11">
-        <v>1.040389789343388</v>
+        <v>1.039835157532975</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.041024435945502</v>
+        <v>1.040585728916717</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.037466756826776</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.036930796056564</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022084883383317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9975332953832411</v>
+        <v>0.9970115291202983</v>
       </c>
       <c r="D12">
-        <v>1.022471535353106</v>
+        <v>1.02167671904248</v>
       </c>
       <c r="E12">
-        <v>1.005796529319045</v>
+        <v>1.005362528728947</v>
       </c>
       <c r="F12">
-        <v>1.025988472242293</v>
+        <v>1.025422853957786</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044869349477963</v>
+        <v>1.044521995949298</v>
       </c>
       <c r="J12">
-        <v>1.027442418712089</v>
+        <v>1.026942907132377</v>
       </c>
       <c r="K12">
-        <v>1.037180518255139</v>
+        <v>1.036400086080857</v>
       </c>
       <c r="L12">
-        <v>1.020813513231406</v>
+        <v>1.02038770727346</v>
       </c>
       <c r="M12">
-        <v>1.040634155049394</v>
+        <v>1.040078679061042</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.041543182142242</v>
+        <v>1.041103955321772</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.037429451775401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03689324014978</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022107516666994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9979857441695067</v>
+        <v>0.9974318301529516</v>
       </c>
       <c r="D13">
-        <v>1.022880375313625</v>
+        <v>1.022047042040091</v>
       </c>
       <c r="E13">
-        <v>1.006179054701558</v>
+        <v>1.005715400723649</v>
       </c>
       <c r="F13">
-        <v>1.026681058457825</v>
+        <v>1.026087377266697</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045073996117728</v>
+        <v>1.044704722782624</v>
       </c>
       <c r="J13">
-        <v>1.027782662375401</v>
+        <v>1.027252258402856</v>
       </c>
       <c r="K13">
-        <v>1.03753936242884</v>
+        <v>1.036721045103992</v>
       </c>
       <c r="L13">
-        <v>1.021145184011884</v>
+        <v>1.020690246864003</v>
       </c>
       <c r="M13">
-        <v>1.041271961817225</v>
+        <v>1.0406888724103</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.042323415536039</v>
+        <v>1.041862469509031</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.037680680749044</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.037117435743592</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022202308107491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9987869501750404</v>
+        <v>0.9981990008234183</v>
       </c>
       <c r="D14">
-        <v>1.023468484175339</v>
+        <v>1.022591337809576</v>
       </c>
       <c r="E14">
-        <v>1.006814357045632</v>
+        <v>1.006319833848071</v>
       </c>
       <c r="F14">
-        <v>1.027457547136237</v>
+        <v>1.02683225033447</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045320104020171</v>
+        <v>1.044927472530003</v>
       </c>
       <c r="J14">
-        <v>1.028246006976875</v>
+        <v>1.027682657321106</v>
       </c>
       <c r="K14">
-        <v>1.037977394130723</v>
+        <v>1.037115857446677</v>
       </c>
       <c r="L14">
-        <v>1.021625700480995</v>
+        <v>1.02114035727145</v>
       </c>
       <c r="M14">
-        <v>1.041895903618471</v>
+        <v>1.041281619300552</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042989527146429</v>
+        <v>1.042503986108297</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.037991800974416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037398132265472</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022301473176812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9992197643841626</v>
+        <v>0.998617447702026</v>
       </c>
       <c r="D15">
-        <v>1.02376504854966</v>
+        <v>1.022868483731726</v>
       </c>
       <c r="E15">
-        <v>1.007150633168242</v>
+        <v>1.006643245065398</v>
       </c>
       <c r="F15">
-        <v>1.027803602712843</v>
+        <v>1.027164378973305</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045434071801484</v>
+        <v>1.045031533553709</v>
       </c>
       <c r="J15">
-        <v>1.028473752530622</v>
+        <v>1.027896418002869</v>
       </c>
       <c r="K15">
-        <v>1.038182769925739</v>
+        <v>1.037302040044656</v>
       </c>
       <c r="L15">
-        <v>1.021867761889817</v>
+        <v>1.021369720070028</v>
       </c>
       <c r="M15">
-        <v>1.042150439568644</v>
+        <v>1.041522387358301</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.010174360971594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.0432281627382</v>
+        <v>1.042731752348924</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.03814285669223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037536187885962</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022343917171937</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.00149035630638</v>
+        <v>1.000828957083258</v>
       </c>
       <c r="D16">
-        <v>1.025224888139963</v>
+        <v>1.024243165866286</v>
       </c>
       <c r="E16">
-        <v>1.008885433718253</v>
+        <v>1.008326084242704</v>
       </c>
       <c r="F16">
-        <v>1.029329662785482</v>
+        <v>1.028629849236955</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045944342297546</v>
+        <v>1.045500780814145</v>
       </c>
       <c r="J16">
-        <v>1.029568371704542</v>
+        <v>1.028933044159819</v>
       </c>
       <c r="K16">
-        <v>1.039117775275892</v>
+        <v>1.038152642512443</v>
       </c>
       <c r="L16">
-        <v>1.02305987898702</v>
+        <v>1.022510377524009</v>
       </c>
       <c r="M16">
-        <v>1.043153627574714</v>
+        <v>1.04246551430909</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.043982455613244</v>
+        <v>1.043438557756528</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038807089937033</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038141044279182</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022514414848564</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002815236528024</v>
+        <v>1.002126279599396</v>
       </c>
       <c r="D17">
-        <v>1.026038815569046</v>
+        <v>1.02501468827618</v>
       </c>
       <c r="E17">
-        <v>1.009887069827526</v>
+        <v>1.009303933706372</v>
       </c>
       <c r="F17">
-        <v>1.030089991530785</v>
+        <v>1.029360200631274</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046205258521485</v>
+        <v>1.045742380691648</v>
       </c>
       <c r="J17">
-        <v>1.030165657575012</v>
+        <v>1.029502992526101</v>
       </c>
       <c r="K17">
-        <v>1.039605190406399</v>
+        <v>1.038597888436535</v>
       </c>
       <c r="L17">
-        <v>1.023723935614137</v>
+        <v>1.023150774408402</v>
       </c>
       <c r="M17">
-        <v>1.043590231046238</v>
+        <v>1.042872304576275</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.044198841934432</v>
+        <v>1.043631322880666</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.039154287425605</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038458674166165</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02259250517933</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00343749653763</v>
+        <v>1.002746856480641</v>
       </c>
       <c r="D18">
-        <v>1.026347476409912</v>
+        <v>1.025315511728435</v>
       </c>
       <c r="E18">
-        <v>1.010336043010452</v>
+        <v>1.009752393806542</v>
       </c>
       <c r="F18">
-        <v>1.030210149263986</v>
+        <v>1.029475127755795</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046263749645774</v>
+        <v>1.045799444799074</v>
       </c>
       <c r="J18">
-        <v>1.030371265460874</v>
+        <v>1.029706491030466</v>
       </c>
       <c r="K18">
-        <v>1.039726404753146</v>
+        <v>1.038711120051994</v>
       </c>
       <c r="L18">
-        <v>1.02397871650392</v>
+        <v>1.023404885109403</v>
       </c>
       <c r="M18">
-        <v>1.04352702427452</v>
+        <v>1.042803764788427</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.043911839551709</v>
+        <v>1.043339986173677</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.039228398412846</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038526004315524</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02259111948078</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003433187340632</v>
+        <v>1.002763781423566</v>
       </c>
       <c r="D19">
-        <v>1.026211789301488</v>
+        <v>1.025203027265657</v>
       </c>
       <c r="E19">
-        <v>1.010293432427897</v>
+        <v>1.009729802157495</v>
       </c>
       <c r="F19">
-        <v>1.029752383275062</v>
+        <v>1.029034301984167</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046148687742699</v>
+        <v>1.045698824645492</v>
       </c>
       <c r="J19">
-        <v>1.030233244771023</v>
+        <v>1.029588762294461</v>
       </c>
       <c r="K19">
-        <v>1.039530705735925</v>
+        <v>1.038538166791708</v>
       </c>
       <c r="L19">
-        <v>1.023873218835909</v>
+        <v>1.023319019655193</v>
       </c>
       <c r="M19">
-        <v>1.043014681606147</v>
+        <v>1.042308042878879</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.043182205238109</v>
+        <v>1.042623311663978</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.039096404928221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038410719272842</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022523544779277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001659019385901</v>
+        <v>1.001074638531592</v>
       </c>
       <c r="D20">
-        <v>1.024818500205438</v>
+        <v>1.02391869266516</v>
       </c>
       <c r="E20">
-        <v>1.008861487210344</v>
+        <v>1.008375093458878</v>
       </c>
       <c r="F20">
-        <v>1.027716937440089</v>
+        <v>1.027077362768027</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045543172931088</v>
+        <v>1.045151827547393</v>
       </c>
       <c r="J20">
-        <v>1.029126138075783</v>
+        <v>1.028564197426316</v>
       </c>
       <c r="K20">
-        <v>1.038438546609139</v>
+        <v>1.037553607105558</v>
       </c>
       <c r="L20">
-        <v>1.022750287398196</v>
+        <v>1.022272258377603</v>
       </c>
       <c r="M20">
-        <v>1.041289318870785</v>
+        <v>1.040660232296635</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.041290865250027</v>
+        <v>1.040793010321805</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.038328119316681</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037718903129215</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022267670201488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9973999321084989</v>
+        <v>0.9969403740729634</v>
       </c>
       <c r="D21">
-        <v>1.0220176765895</v>
+        <v>1.02129135041663</v>
       </c>
       <c r="E21">
-        <v>1.005585344545251</v>
+        <v>1.00520967417669</v>
       </c>
       <c r="F21">
-        <v>1.024669583658472</v>
+        <v>1.024154473952163</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044530918555763</v>
+        <v>1.044225648110975</v>
       </c>
       <c r="J21">
-        <v>1.027006764761001</v>
+        <v>1.026566576318687</v>
       </c>
       <c r="K21">
-        <v>1.036593588188729</v>
+        <v>1.035880275256017</v>
       </c>
       <c r="L21">
-        <v>1.020461667890142</v>
+        <v>1.02009301532622</v>
       </c>
       <c r="M21">
-        <v>1.039198185593681</v>
+        <v>1.038692240488866</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.039595124488834</v>
+        <v>1.039194702245854</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.037026888007834</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036539350346584</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021915573842998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9946894979469765</v>
+        <v>0.994308698404467</v>
       </c>
       <c r="D22">
-        <v>1.020247465735609</v>
+        <v>1.019630114291049</v>
       </c>
       <c r="E22">
-        <v>1.003509813239168</v>
+        <v>1.003203797341142</v>
       </c>
       <c r="F22">
-        <v>1.022777769976863</v>
+        <v>1.022341019400822</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043885286752566</v>
+        <v>1.043633917749324</v>
       </c>
       <c r="J22">
-        <v>1.025664556818912</v>
+        <v>1.025300736854396</v>
       </c>
       <c r="K22">
-        <v>1.035428211722917</v>
+        <v>1.034822473587357</v>
       </c>
       <c r="L22">
-        <v>1.019012059229123</v>
+        <v>1.018712052439692</v>
       </c>
       <c r="M22">
-        <v>1.037911108318045</v>
+        <v>1.037482518805043</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.038576487117268</v>
+        <v>1.038237286265047</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.036189453797425</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035776673691484</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021691817280029</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9961215234602244</v>
+        <v>0.9956990920858906</v>
       </c>
       <c r="D23">
-        <v>1.021176512464286</v>
+        <v>1.020501469850144</v>
       </c>
       <c r="E23">
-        <v>1.004604303947007</v>
+        <v>1.004261513308012</v>
       </c>
       <c r="F23">
-        <v>1.023774376289992</v>
+        <v>1.023296154431586</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044222858739237</v>
+        <v>1.043943041071209</v>
       </c>
       <c r="J23">
-        <v>1.02636937594931</v>
+        <v>1.025965230812178</v>
       </c>
       <c r="K23">
-        <v>1.036036439171615</v>
+        <v>1.035373773927522</v>
       </c>
       <c r="L23">
-        <v>1.019774386411325</v>
+        <v>1.019438152669002</v>
       </c>
       <c r="M23">
-        <v>1.038586867533895</v>
+        <v>1.038117354185283</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.039111306460817</v>
+        <v>1.038739717311318</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.036609886857321</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.036155910570179</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021807344643353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001673809675937</v>
+        <v>1.001091876595872</v>
       </c>
       <c r="D24">
-        <v>1.024800266041068</v>
+        <v>1.023902804735143</v>
       </c>
       <c r="E24">
-        <v>1.008865495152097</v>
+        <v>1.008381454987896</v>
       </c>
       <c r="F24">
-        <v>1.027660623731747</v>
+        <v>1.027022821995418</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045524168563993</v>
+        <v>1.045134477069697</v>
       </c>
       <c r="J24">
-        <v>1.029107579563642</v>
+        <v>1.028547960312861</v>
       </c>
       <c r="K24">
-        <v>1.038405422475932</v>
+        <v>1.037522772087434</v>
       </c>
       <c r="L24">
-        <v>1.022738691158255</v>
+        <v>1.022262964432198</v>
       </c>
       <c r="M24">
-        <v>1.041218797219837</v>
+        <v>1.040591442577953</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.041194303347351</v>
+        <v>1.040697794518186</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.038277384018355</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.037667109162127</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022254913621265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007918741551092</v>
+        <v>1.007161231480463</v>
       </c>
       <c r="D25">
-        <v>1.028899508824442</v>
+        <v>1.027754127202567</v>
       </c>
       <c r="E25">
-        <v>1.013688050666807</v>
+        <v>1.013048030939313</v>
       </c>
       <c r="F25">
-        <v>1.032068413764865</v>
+        <v>1.031253396822426</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046956945941622</v>
+        <v>1.046444710077494</v>
       </c>
       <c r="J25">
-        <v>1.032182516002955</v>
+        <v>1.031449971924205</v>
       </c>
       <c r="K25">
-        <v>1.041065170281029</v>
+        <v>1.039936349110763</v>
       </c>
       <c r="L25">
-        <v>1.026077529427272</v>
+        <v>1.025447114316544</v>
       </c>
       <c r="M25">
-        <v>1.044188500229679</v>
+        <v>1.043385170930049</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.04354461809448</v>
+        <v>1.042908839208642</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.040155097937273</v>
+        <v>1.039370461709815</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022747226101985</v>
       </c>
     </row>
   </sheetData>
